--- a/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,845 +409,995 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.57322616867084</v>
+        <v>17.85937680776135</v>
       </c>
       <c r="C2">
-        <v>15.97377235910881</v>
+        <v>11.69225358490902</v>
       </c>
       <c r="D2">
-        <v>4.75532932572654</v>
+        <v>4.325170340631416</v>
       </c>
       <c r="E2">
-        <v>12.00935860332175</v>
+        <v>12.60810503620746</v>
       </c>
       <c r="F2">
-        <v>39.43589070031639</v>
+        <v>36.29860403282348</v>
       </c>
       <c r="I2">
-        <v>26.08463420720614</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.84599999267774</v>
+        <v>15.66266513335116</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.35433071899144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.80087051875222</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.56779003815637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.33822323212663</v>
+        <v>16.60485333706894</v>
       </c>
       <c r="C3">
-        <v>14.81683089963178</v>
+        <v>10.94610034837792</v>
       </c>
       <c r="D3">
-        <v>4.758879898461645</v>
+        <v>4.364962748727411</v>
       </c>
       <c r="E3">
-        <v>11.30524831901134</v>
+        <v>11.87095347125379</v>
       </c>
       <c r="F3">
-        <v>37.37559148913754</v>
+        <v>34.48093029800729</v>
       </c>
       <c r="I3">
-        <v>25.08059987708589</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.68585004669556</v>
+        <v>14.62395705168138</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.14241285831314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.64742110043538</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.29821561585603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.54161749242223</v>
+        <v>15.79476452578146</v>
       </c>
       <c r="C4">
-        <v>14.0722673421183</v>
+        <v>10.46624540773343</v>
       </c>
       <c r="D4">
-        <v>4.76295468101025</v>
+        <v>4.390415305208839</v>
       </c>
       <c r="E4">
-        <v>10.86488080763082</v>
+        <v>11.40944401642549</v>
       </c>
       <c r="F4">
-        <v>36.09280973808605</v>
+        <v>33.3521695829702</v>
       </c>
       <c r="I4">
-        <v>24.46765782523245</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.93854627456918</v>
+        <v>13.95447183441545</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.36302927118821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.90503237123703</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.51663975650123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.20719215954614</v>
+        <v>15.45448148138375</v>
       </c>
       <c r="C5">
-        <v>13.76006976526106</v>
+        <v>10.26518200128932</v>
       </c>
       <c r="D5">
-        <v>4.765052582530525</v>
+        <v>4.40102790921432</v>
       </c>
       <c r="E5">
-        <v>10.68350230218835</v>
+        <v>11.21925512764934</v>
       </c>
       <c r="F5">
-        <v>35.56598512110685</v>
+        <v>32.8893869418148</v>
       </c>
       <c r="I5">
-        <v>24.21889727162359</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.62506958858489</v>
+        <v>13.67357793620891</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.03638282450522</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.59377122880364</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.1978800513215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.15106434844752</v>
+        <v>15.39735940245425</v>
       </c>
       <c r="C6">
-        <v>13.70769408770412</v>
+        <v>10.23146086217196</v>
       </c>
       <c r="D6">
-        <v>4.765426279293443</v>
+        <v>4.402804225439602</v>
       </c>
       <c r="E6">
-        <v>10.65327201860111</v>
+        <v>11.18755071870157</v>
       </c>
       <c r="F6">
-        <v>35.4782733695045</v>
+        <v>32.81238624687676</v>
       </c>
       <c r="I6">
-        <v>24.17765665710062</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.57247266172594</v>
+        <v>13.62644553387149</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.98159258130157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.54155537985463</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.14494298523814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.53714721874829</v>
+        <v>15.7902167080499</v>
       </c>
       <c r="C7">
-        <v>14.06809272661565</v>
+        <v>10.46355620695258</v>
       </c>
       <c r="D7">
-        <v>4.7629812521172</v>
+        <v>4.390557476209681</v>
       </c>
       <c r="E7">
-        <v>10.86244230590036</v>
+        <v>11.40688745677454</v>
       </c>
       <c r="F7">
-        <v>36.08572072505191</v>
+        <v>33.34593909707698</v>
       </c>
       <c r="I7">
-        <v>24.46429863645387</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.93435502343662</v>
+        <v>13.95071640849792</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.3586608295074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.90087012328898</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.51234153185382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.15524265145145</v>
+        <v>17.43498220750875</v>
       </c>
       <c r="C8">
-        <v>15.58184219079688</v>
+        <v>11.43944647694892</v>
       </c>
       <c r="D8">
-        <v>4.756135684159428</v>
+        <v>4.338668718371737</v>
       </c>
       <c r="E8">
-        <v>11.76829346743075</v>
+        <v>12.35583642671638</v>
       </c>
       <c r="F8">
-        <v>38.72937477671087</v>
+        <v>35.67470918971426</v>
       </c>
       <c r="I8">
-        <v>25.7377743670325</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.45314159561731</v>
+        <v>15.31103677767338</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.94366919009572</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.41016277310231</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.13060143282445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.032671916582</v>
+        <v>20.35207822680743</v>
       </c>
       <c r="C9">
-        <v>18.28798596718607</v>
+        <v>13.18436253894288</v>
       </c>
       <c r="D9">
-        <v>4.759708635458919</v>
+        <v>4.245869018746558</v>
       </c>
       <c r="E9">
-        <v>13.47916753421476</v>
+        <v>14.14356987823546</v>
       </c>
       <c r="F9">
-        <v>43.76258000133432</v>
+        <v>40.12895823659685</v>
       </c>
       <c r="I9">
-        <v>28.25969968136698</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.16172636325285</v>
+        <v>17.73225525551304</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.78095597225963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19.10600483892755</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.27982365594034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.9792865928698</v>
+        <v>22.31880458572312</v>
       </c>
       <c r="C10">
-        <v>20.13023759347396</v>
+        <v>14.36951880024089</v>
       </c>
       <c r="D10">
-        <v>4.775788894980352</v>
+        <v>4.184617150535789</v>
       </c>
       <c r="E10">
-        <v>14.80174365199047</v>
+        <v>15.50176690541268</v>
       </c>
       <c r="F10">
-        <v>47.3646993024413</v>
+        <v>43.32542782887826</v>
       </c>
       <c r="I10">
-        <v>30.12692681349164</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.99941357161548</v>
+        <v>19.36950958463731</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.71437902522019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20.93721839914775</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.57353576800336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83174787732833</v>
+        <v>23.17805583247553</v>
       </c>
       <c r="C11">
-        <v>20.94020749490497</v>
+        <v>14.8893444269755</v>
       </c>
       <c r="D11">
-        <v>4.786836265793798</v>
+        <v>4.158681547991034</v>
       </c>
       <c r="E11">
-        <v>15.42131954098855</v>
+        <v>16.14405721384368</v>
       </c>
       <c r="F11">
-        <v>48.98467714075839</v>
+        <v>44.7638249034775</v>
       </c>
       <c r="I11">
-        <v>30.98065467038779</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.80550238279672</v>
+        <v>20.08585210791107</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.56478175668138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.74080830576257</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.61315224289819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.15010863960702</v>
+        <v>23.49860527604035</v>
       </c>
       <c r="C12">
-        <v>21.24322797063495</v>
+        <v>15.08358046094405</v>
       </c>
       <c r="D12">
-        <v>4.791635854090517</v>
+        <v>4.149182735438421</v>
       </c>
       <c r="E12">
-        <v>15.65370133736592</v>
+        <v>16.38473724574246</v>
       </c>
       <c r="F12">
-        <v>49.59580378495112</v>
+        <v>45.30646866625629</v>
       </c>
       <c r="I12">
-        <v>31.30475360226361</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.10675407658398</v>
+        <v>20.35323907376825</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.88297424230848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>22.04115862828521</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.00643352856969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.08173644515039</v>
+        <v>23.42977952063921</v>
       </c>
       <c r="C13">
-        <v>21.17812560841189</v>
+        <v>15.04186144839439</v>
       </c>
       <c r="D13">
-        <v>4.790573381411613</v>
+        <v>4.151213316764774</v>
       </c>
       <c r="E13">
-        <v>15.60374810045693</v>
+        <v>16.33301090124606</v>
       </c>
       <c r="F13">
-        <v>49.46428267523224</v>
+        <v>45.18968691751123</v>
       </c>
       <c r="I13">
-        <v>31.23491307405498</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.04204663949749</v>
+        <v>20.29582116981614</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.81461029180509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.97664367713145</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>34.92174773882566</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.85802684678875</v>
+        <v>23.20452281625894</v>
       </c>
       <c r="C14">
-        <v>20.96520915777047</v>
+        <v>14.90537562233844</v>
       </c>
       <c r="D14">
-        <v>4.787218284928523</v>
+        <v>4.157893321628885</v>
       </c>
       <c r="E14">
-        <v>15.44048073039858</v>
+        <v>16.16390738735476</v>
       </c>
       <c r="F14">
-        <v>49.03499885343989</v>
+        <v>44.80850788223525</v>
       </c>
       <c r="I14">
-        <v>31.00730083571383</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>21.8303647656366</v>
+        <v>20.10792654678347</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.59103434250437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.76559575898601</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.64551454099952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.72042881817762</v>
+        <v>23.06592586934581</v>
       </c>
       <c r="C15">
-        <v>20.83432105778277</v>
+        <v>14.82143948684416</v>
       </c>
       <c r="D15">
-        <v>4.785245992639436</v>
+        <v>4.162028503325697</v>
       </c>
       <c r="E15">
-        <v>15.34019282881899</v>
+        <v>16.06000413372703</v>
       </c>
       <c r="F15">
-        <v>48.77176081692073</v>
+        <v>44.57476666455708</v>
       </c>
       <c r="I15">
-        <v>30.86799447607809</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>21.70019267000725</v>
+        <v>19.99233772450613</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.45359926356995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.63581717880136</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.47626778463243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.92293623149523</v>
+        <v>22.26195953139291</v>
       </c>
       <c r="C16">
-        <v>20.07676716450664</v>
+        <v>14.3351720509071</v>
       </c>
       <c r="D16">
-        <v>4.775148566896849</v>
+        <v>4.186354563663985</v>
       </c>
       <c r="E16">
-        <v>14.76092261370318</v>
+        <v>15.4594208662242</v>
       </c>
       <c r="F16">
-        <v>47.25848171206611</v>
+        <v>43.23112458264912</v>
       </c>
       <c r="I16">
-        <v>30.07123484245239</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.94615718893369</v>
+        <v>19.32214010798519</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.65824609945632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.88413275709597</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.50552837784429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.42543794979057</v>
+        <v>21.75985774842047</v>
       </c>
       <c r="C17">
-        <v>19.60506848210271</v>
+        <v>14.03202769241056</v>
       </c>
       <c r="D17">
-        <v>4.769963158952263</v>
+        <v>4.201801088840466</v>
       </c>
       <c r="E17">
-        <v>14.40124296952758</v>
+        <v>15.08616206250524</v>
       </c>
       <c r="F17">
-        <v>46.32556352846242</v>
+        <v>42.40293511076906</v>
       </c>
       <c r="I17">
-        <v>29.58366276258709</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.47612797593314</v>
+        <v>18.90385231019396</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.16309862118242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>20.41564772680804</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.90911308029188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.13615748520323</v>
+        <v>21.4677105376338</v>
       </c>
       <c r="C18">
-        <v>19.33109402965303</v>
+        <v>13.85583837602097</v>
       </c>
       <c r="D18">
-        <v>4.76732658555465</v>
+        <v>4.21086382780107</v>
       </c>
       <c r="E18">
-        <v>14.19268633067779</v>
+        <v>14.86961943247578</v>
       </c>
       <c r="F18">
-        <v>45.78718801356622</v>
+        <v>41.92508520285676</v>
       </c>
       <c r="I18">
-        <v>29.30361423670319</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.20294649487104</v>
+        <v>18.66057165128219</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.87553816530445</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>20.14339776335402</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.56569826718697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.03766535485101</v>
+        <v>21.36821134105957</v>
       </c>
       <c r="C19">
-        <v>19.23786349421074</v>
+        <v>13.79586497225117</v>
       </c>
       <c r="D19">
-        <v>4.766491060540192</v>
+        <v>4.213961704852599</v>
       </c>
       <c r="E19">
-        <v>14.12177608982825</v>
+        <v>14.79597596199974</v>
       </c>
       <c r="F19">
-        <v>45.60458829872835</v>
+        <v>41.76303188795515</v>
       </c>
       <c r="I19">
-        <v>29.20885720317413</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.10995684955906</v>
+        <v>18.57773245477548</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.7776903876419</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>20.05073147438198</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.44935692427786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.47871960962837</v>
+        <v>21.8136524009333</v>
       </c>
       <c r="C20">
-        <v>19.65555519842072</v>
+        <v>14.06448606900229</v>
       </c>
       <c r="D20">
-        <v>4.770478811442426</v>
+        <v>4.200138026737648</v>
       </c>
       <c r="E20">
-        <v>14.43970319585188</v>
+        <v>15.1260861958785</v>
       </c>
       <c r="F20">
-        <v>46.42505698305766</v>
+        <v>42.49125112083506</v>
       </c>
       <c r="I20">
-        <v>29.63552417217673</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.52645455717677</v>
+        <v>18.94865696536586</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.21609166802684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>20.46580556636065</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.9726402819115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.92385384294085</v>
+        <v>23.27081501157647</v>
       </c>
       <c r="C21">
-        <v>21.02784528285818</v>
+        <v>14.94553422098748</v>
       </c>
       <c r="D21">
-        <v>4.788186343911468</v>
+        <v>4.155922086133922</v>
       </c>
       <c r="E21">
-        <v>15.48849447353818</v>
+        <v>16.21364386380924</v>
       </c>
       <c r="F21">
-        <v>49.1611493427474</v>
+        <v>44.92052262840037</v>
       </c>
       <c r="I21">
-        <v>31.07413211476721</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>21.89264672307405</v>
+        <v>20.16321909658407</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.6568050912608</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.82769046590021</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.72666010404539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.8425808255845</v>
+        <v>24.19514575310318</v>
       </c>
       <c r="C22">
-        <v>21.90335809055226</v>
+        <v>15.50622941525182</v>
       </c>
       <c r="D22">
-        <v>4.803396513535485</v>
+        <v>4.12893171347102</v>
       </c>
       <c r="E22">
-        <v>16.16106671431082</v>
+        <v>16.90976445656856</v>
       </c>
       <c r="F22">
-        <v>50.93608219120311</v>
+        <v>46.49645569961812</v>
       </c>
       <c r="I22">
-        <v>32.01922455171037</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.76240858019028</v>
+        <v>20.93453286902085</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.57623365046304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.69488639732826</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>35.87082611060564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.35448276782746</v>
+        <v>23.7042804693051</v>
       </c>
       <c r="C23">
-        <v>21.43790938305087</v>
+        <v>15.20829770560839</v>
       </c>
       <c r="D23">
-        <v>4.794916356426629</v>
+        <v>4.143145070722083</v>
       </c>
       <c r="E23">
-        <v>15.80317007374102</v>
+        <v>16.5394756112689</v>
       </c>
       <c r="F23">
-        <v>49.98982009810913</v>
+        <v>45.65632165145323</v>
       </c>
       <c r="I23">
-        <v>31.51427826958684</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.30020526105395</v>
+        <v>20.52484549925431</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.08741528622107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>22.23403742572434</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.26028940248548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.45464115445136</v>
+        <v>21.78934270431303</v>
       </c>
       <c r="C24">
-        <v>19.63273886485987</v>
+        <v>14.0498175908311</v>
       </c>
       <c r="D24">
-        <v>4.770244617510855</v>
+        <v>4.200889332512229</v>
       </c>
       <c r="E24">
-        <v>14.42232086860844</v>
+        <v>15.10804259202968</v>
       </c>
       <c r="F24">
-        <v>46.38008233524029</v>
+        <v>42.45132880182068</v>
       </c>
       <c r="I24">
-        <v>29.61207682241746</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.50371113740725</v>
+        <v>18.9284095224545</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.19214255017436</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20.44313829707374</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.94392128774469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.28465952591135</v>
+        <v>19.59480743563841</v>
       </c>
       <c r="C25">
-        <v>17.5826335591018</v>
+        <v>12.72982704674306</v>
       </c>
       <c r="D25">
-        <v>4.75662624966863</v>
+        <v>4.269880542631597</v>
       </c>
       <c r="E25">
-        <v>13.0233797854855</v>
+        <v>13.6679335809006</v>
       </c>
       <c r="F25">
-        <v>42.41801511024434</v>
+        <v>38.93719505680313</v>
       </c>
       <c r="I25">
-        <v>27.57509105002319</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>18.45669494756578</v>
+        <v>17.10281148254528</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.04105236952227</v>
+        <v>18.40385963865406</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.43128537787653</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.85937680776135</v>
+        <v>13.17540809125536</v>
       </c>
       <c r="C2">
-        <v>11.69225358490902</v>
+        <v>7.283797348608943</v>
       </c>
       <c r="D2">
-        <v>4.325170340631416</v>
+        <v>6.634483854560183</v>
       </c>
       <c r="E2">
-        <v>12.60810503620746</v>
+        <v>6.491025030661516</v>
       </c>
       <c r="F2">
-        <v>36.29860403282348</v>
+        <v>41.32832819123941</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>30.89309692306663</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.66266513335116</v>
+        <v>11.48668042692173</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.23398964093732</v>
       </c>
       <c r="M2">
-        <v>16.80087051875222</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.56779003815637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.60485333706894</v>
+        <v>12.38835917175169</v>
       </c>
       <c r="C3">
-        <v>10.94610034837792</v>
+        <v>6.804762564325159</v>
       </c>
       <c r="D3">
-        <v>4.364962748727411</v>
+        <v>6.642843260339839</v>
       </c>
       <c r="E3">
-        <v>11.87095347125379</v>
+        <v>6.396504225817315</v>
       </c>
       <c r="F3">
-        <v>34.48093029800729</v>
+        <v>39.83022204615834</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>30.08214486193734</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>14.62395705168138</v>
+        <v>10.6845134907035</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.034226584333644</v>
       </c>
       <c r="M3">
-        <v>15.64742110043538</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.29821561585603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.79476452578146</v>
+        <v>11.89051379423895</v>
       </c>
       <c r="C4">
-        <v>10.46624540773343</v>
+        <v>6.496443412861737</v>
       </c>
       <c r="D4">
-        <v>4.390415305208839</v>
+        <v>6.648068878116678</v>
       </c>
       <c r="E4">
-        <v>11.40944401642549</v>
+        <v>6.341289738207857</v>
       </c>
       <c r="F4">
-        <v>33.3521695829702</v>
+        <v>38.90692856171449</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>29.58889303347691</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.95447183441545</v>
+        <v>10.16622005340063</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.913745140167207</v>
       </c>
       <c r="M4">
-        <v>14.90503237123703</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.51663975650123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.45448148138375</v>
+        <v>11.6841606853339</v>
       </c>
       <c r="C5">
-        <v>10.26518200128932</v>
+        <v>6.367196513073268</v>
       </c>
       <c r="D5">
-        <v>4.40102790921432</v>
+        <v>6.650220397383821</v>
       </c>
       <c r="E5">
-        <v>11.21925512764934</v>
+        <v>6.319499043233273</v>
       </c>
       <c r="F5">
-        <v>32.8893869418148</v>
+        <v>38.5301627464187</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>29.38917385571498</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.67357793620891</v>
+        <v>9.948449739129932</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.86523773561281</v>
       </c>
       <c r="M5">
-        <v>14.59377122880364</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.1978800513215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.39735940245425</v>
+        <v>11.64969255836557</v>
       </c>
       <c r="C6">
-        <v>10.23146086217196</v>
+        <v>6.345516558908337</v>
       </c>
       <c r="D6">
-        <v>4.402804225439602</v>
+        <v>6.650578949476167</v>
       </c>
       <c r="E6">
-        <v>11.18755071870157</v>
+        <v>6.315923564043588</v>
       </c>
       <c r="F6">
-        <v>32.81238624687676</v>
+        <v>38.46758098275196</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>29.35609159759522</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.62644553387149</v>
+        <v>9.911890464776386</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.857220033537478</v>
       </c>
       <c r="M6">
-        <v>14.54155537985463</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.14494298523814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.7902167080499</v>
+        <v>11.88774462974882</v>
       </c>
       <c r="C7">
-        <v>10.46355620695258</v>
+        <v>6.494714980279798</v>
       </c>
       <c r="D7">
-        <v>4.390557476209681</v>
+        <v>6.648097806713728</v>
       </c>
       <c r="E7">
-        <v>11.40688745677454</v>
+        <v>6.340992988305477</v>
       </c>
       <c r="F7">
-        <v>33.34593909707698</v>
+        <v>38.90184896073372</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>29.58619419756602</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.95071640849792</v>
+        <v>10.16330980252069</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.913088506037167</v>
       </c>
       <c r="M7">
-        <v>14.90087012328898</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.51234153185382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.43498220750875</v>
+        <v>12.90716255445258</v>
       </c>
       <c r="C8">
-        <v>11.43944647694892</v>
+        <v>7.12154712776492</v>
       </c>
       <c r="D8">
-        <v>4.338668718371737</v>
+        <v>6.637346069747487</v>
       </c>
       <c r="E8">
-        <v>12.35583642671638</v>
+        <v>6.457848864937042</v>
       </c>
       <c r="F8">
-        <v>35.67470918971426</v>
+        <v>40.81269406724837</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>30.61257238356573</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.31103677767338</v>
+        <v>11.21538772176427</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.164685274348927</v>
       </c>
       <c r="M8">
-        <v>16.41016277310231</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.13060143282445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.35207822680743</v>
+        <v>15.02345831129966</v>
       </c>
       <c r="C9">
-        <v>13.18436253894288</v>
+        <v>8.240200521370401</v>
       </c>
       <c r="D9">
-        <v>4.245869018746558</v>
+        <v>6.61706327467932</v>
       </c>
       <c r="E9">
-        <v>14.14356987823546</v>
+        <v>6.709381729512661</v>
       </c>
       <c r="F9">
-        <v>40.12895823659685</v>
+        <v>44.51960364872529</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.65830744459716</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.73225525551304</v>
+        <v>13.07814814521936</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.67359063975726</v>
       </c>
       <c r="M9">
-        <v>19.10600483892755</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.27982365594034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.31880458572312</v>
+        <v>16.49456826980756</v>
       </c>
       <c r="C10">
-        <v>14.36951880024089</v>
+        <v>8.998037708849779</v>
       </c>
       <c r="D10">
-        <v>4.184617150535789</v>
+        <v>6.60274797117208</v>
       </c>
       <c r="E10">
-        <v>15.50176690541268</v>
+        <v>6.907858627791476</v>
       </c>
       <c r="F10">
-        <v>43.32542782887826</v>
+        <v>47.20542701488776</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.17735321699475</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.36950958463731</v>
+        <v>14.3305745717713</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.055007173828201</v>
       </c>
       <c r="M10">
-        <v>20.93721839914775</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.57353576800336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.17805583247553</v>
+        <v>17.1363452162649</v>
       </c>
       <c r="C11">
-        <v>14.8893444269755</v>
+        <v>9.32978306281975</v>
       </c>
       <c r="D11">
-        <v>4.158681547991034</v>
+        <v>6.596388187925281</v>
       </c>
       <c r="E11">
-        <v>16.14405721384368</v>
+        <v>7.00114998201258</v>
       </c>
       <c r="F11">
-        <v>44.7638249034775</v>
+        <v>48.41758267118662</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>34.87149988504162</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.08585210791107</v>
+        <v>14.87656303956977</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.229876874880079</v>
       </c>
       <c r="M11">
-        <v>21.74080830576257</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.61315224289819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.49860527604035</v>
+        <v>17.37555924277879</v>
       </c>
       <c r="C12">
-        <v>15.08358046094405</v>
+        <v>9.453621951146857</v>
       </c>
       <c r="D12">
-        <v>4.149182735438421</v>
+        <v>6.594004310161668</v>
       </c>
       <c r="E12">
-        <v>16.38473724574246</v>
+        <v>7.036913404937238</v>
       </c>
       <c r="F12">
-        <v>45.30646866625629</v>
+        <v>48.87516628004393</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.1348073481359</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.35323907376825</v>
+        <v>15.0800308920669</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.296278052276545</v>
       </c>
       <c r="M12">
-        <v>22.04115862828521</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.00643352856969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.42977952063921</v>
+        <v>17.32420752377811</v>
       </c>
       <c r="C13">
-        <v>15.04186144839439</v>
+        <v>9.427029022433622</v>
       </c>
       <c r="D13">
-        <v>4.151213316764774</v>
+        <v>6.594516590052447</v>
       </c>
       <c r="E13">
-        <v>16.33301090124606</v>
+        <v>7.029191623677887</v>
       </c>
       <c r="F13">
-        <v>45.18968691751123</v>
+        <v>48.77668122688689</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.07807904714537</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.29582116981614</v>
+        <v>15.03635442760348</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.281969407579254</v>
       </c>
       <c r="M13">
-        <v>21.97664367713145</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.92174773882566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.20452281625894</v>
+        <v>17.15610109990617</v>
       </c>
       <c r="C14">
-        <v>14.90537562233844</v>
+        <v>9.340006640916876</v>
       </c>
       <c r="D14">
-        <v>4.157893321628885</v>
+        <v>6.596191559406265</v>
       </c>
       <c r="E14">
-        <v>16.16390738735476</v>
+        <v>7.004083488202159</v>
       </c>
       <c r="F14">
-        <v>44.80850788223525</v>
+        <v>48.45525710219825</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>34.8931532299916</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.10792654678347</v>
+        <v>14.89336754295409</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.235336142883911</v>
       </c>
       <c r="M14">
-        <v>21.76559575898601</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.64551454099952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.06592586934581</v>
+        <v>17.05263870466613</v>
       </c>
       <c r="C15">
-        <v>14.82143948684416</v>
+        <v>9.286472991009136</v>
       </c>
       <c r="D15">
-        <v>4.162028503325697</v>
+        <v>6.597220789687247</v>
       </c>
       <c r="E15">
-        <v>16.06000413372703</v>
+        <v>6.988760982623986</v>
       </c>
       <c r="F15">
-        <v>44.57476666455708</v>
+        <v>48.25818864815097</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34.77993987850382</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.99233772450613</v>
+        <v>14.80536001129738</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.206795342490837</v>
       </c>
       <c r="M15">
-        <v>21.63581717880136</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.47626778463243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.26195953139291</v>
+        <v>16.4520854898396</v>
       </c>
       <c r="C16">
-        <v>14.3351720509071</v>
+        <v>8.976102698413928</v>
       </c>
       <c r="D16">
-        <v>4.186354563663985</v>
+        <v>6.603166871525082</v>
       </c>
       <c r="E16">
-        <v>15.4594208662242</v>
+        <v>6.901822544678407</v>
       </c>
       <c r="F16">
-        <v>43.23112458264912</v>
+        <v>47.12601021272354</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.13205123229231</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.32214010798519</v>
+        <v>14.29442583306283</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.04360502364155</v>
       </c>
       <c r="M16">
-        <v>20.88413275709597</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.50552837784429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.75985774842047</v>
+        <v>16.07672741807887</v>
       </c>
       <c r="C17">
-        <v>14.03202769241056</v>
+        <v>8.782427480633343</v>
       </c>
       <c r="D17">
-        <v>4.201801088840466</v>
+        <v>6.606855307310114</v>
       </c>
       <c r="E17">
-        <v>15.08616206250524</v>
+        <v>6.849259958936884</v>
       </c>
       <c r="F17">
-        <v>42.40293511076906</v>
+        <v>46.42893127568554</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.73538274354698</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.90385231019396</v>
+        <v>13.97499016043254</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.943828985133367</v>
       </c>
       <c r="M17">
-        <v>20.41564772680804</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.90911308029188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.4677105376338</v>
+        <v>15.85823989897264</v>
       </c>
       <c r="C18">
-        <v>13.85583837602097</v>
+        <v>8.669801563090557</v>
       </c>
       <c r="D18">
-        <v>4.21086382780107</v>
+        <v>6.608990964825246</v>
       </c>
       <c r="E18">
-        <v>14.86961943247578</v>
+        <v>6.819309639607568</v>
       </c>
       <c r="F18">
-        <v>41.92508520285676</v>
+        <v>46.02708127473521</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.50752181021385</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.66057165128219</v>
+        <v>13.78901573331406</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.886568894594665</v>
       </c>
       <c r="M18">
-        <v>20.14339776335402</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.56569826718697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.36821134105957</v>
+        <v>15.78381490041851</v>
       </c>
       <c r="C19">
-        <v>13.79586497225117</v>
+        <v>8.6314548946374</v>
       </c>
       <c r="D19">
-        <v>4.213961704852599</v>
+        <v>6.609716423365891</v>
       </c>
       <c r="E19">
-        <v>14.79597596199974</v>
+        <v>6.809217376012973</v>
       </c>
       <c r="F19">
-        <v>41.76303188795515</v>
+        <v>45.89086827578382</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.43042274326664</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.57773245477548</v>
+        <v>13.72565893359136</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.867204244631797</v>
       </c>
       <c r="M19">
-        <v>20.05073147438198</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.44935692427786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.8136524009333</v>
+        <v>16.11695222303771</v>
       </c>
       <c r="C20">
-        <v>14.06448606900229</v>
+        <v>8.803171169009007</v>
       </c>
       <c r="D20">
-        <v>4.200138026737648</v>
+        <v>6.606461183579813</v>
       </c>
       <c r="E20">
-        <v>15.1260861958785</v>
+        <v>6.854826098525642</v>
       </c>
       <c r="F20">
-        <v>42.49125112083506</v>
+        <v>46.50323112079774</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.77757863480167</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.94865696536586</v>
+        <v>14.00922592910776</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.954437150823143</v>
       </c>
       <c r="M20">
-        <v>20.46580556636065</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.9726402819115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.27081501157647</v>
+        <v>17.205580379061</v>
       </c>
       <c r="C21">
-        <v>14.94553422098748</v>
+        <v>9.365614977540805</v>
       </c>
       <c r="D21">
-        <v>4.155922086133922</v>
+        <v>6.595698895231307</v>
       </c>
       <c r="E21">
-        <v>16.21364386380924</v>
+        <v>7.011446475912758</v>
       </c>
       <c r="F21">
-        <v>44.92052262840037</v>
+        <v>48.54970609456657</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>34.94745807238531</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.16321909658407</v>
+        <v>14.93545435868807</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.249028594042853</v>
       </c>
       <c r="M21">
-        <v>21.82769046590021</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.72666010404539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.19514575310318</v>
+        <v>17.89491001383383</v>
       </c>
       <c r="C22">
-        <v>15.50622941525182</v>
+        <v>9.722841229454895</v>
       </c>
       <c r="D22">
-        <v>4.12893171347102</v>
+        <v>6.588808982474628</v>
       </c>
       <c r="E22">
-        <v>16.90976445656856</v>
+        <v>7.116352457085286</v>
       </c>
       <c r="F22">
-        <v>46.49645569961812</v>
+        <v>49.87886880752089</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>35.71468433326385</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.93453286902085</v>
+        <v>15.5217125113196</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.442621214258237</v>
       </c>
       <c r="M22">
-        <v>22.69488639732826</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.87082611060564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.7042804693051</v>
+        <v>17.52898069687261</v>
       </c>
       <c r="C23">
-        <v>15.20829770560839</v>
+        <v>9.533100866280931</v>
       </c>
       <c r="D23">
-        <v>4.143145070722083</v>
+        <v>6.592472162529542</v>
       </c>
       <c r="E23">
-        <v>16.5394756112689</v>
+        <v>7.060127104514802</v>
       </c>
       <c r="F23">
-        <v>45.65632165145323</v>
+        <v>49.17022901488511</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.30495076618471</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.52484549925431</v>
+        <v>15.21051621840619</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.339202354126867</v>
       </c>
       <c r="M23">
-        <v>22.23403742572434</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.26028940248548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.78934270431303</v>
+        <v>16.09877497469115</v>
       </c>
       <c r="C24">
-        <v>14.0498175908311</v>
+        <v>8.793796938878396</v>
       </c>
       <c r="D24">
-        <v>4.200889332512229</v>
+        <v>6.606639319991114</v>
       </c>
       <c r="E24">
-        <v>15.10804259202968</v>
+        <v>6.852308810423881</v>
       </c>
       <c r="F24">
-        <v>42.45132880182068</v>
+        <v>46.4696435515524</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.75850128300977</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.9284095224545</v>
+        <v>13.99375519451398</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.949640878719745</v>
       </c>
       <c r="M24">
-        <v>20.44313829707374</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.94392128774469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.59480743563841</v>
+        <v>14.45658064141694</v>
       </c>
       <c r="C25">
-        <v>12.72982704674306</v>
+        <v>7.949093444722181</v>
       </c>
       <c r="D25">
-        <v>4.269880542631597</v>
+        <v>6.622455082226734</v>
       </c>
       <c r="E25">
-        <v>13.6679335809006</v>
+        <v>6.638938323612682</v>
       </c>
       <c r="F25">
-        <v>38.93719505680313</v>
+        <v>43.52266738293588</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.10184411790863</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.10281148254528</v>
+        <v>12.59507806428669</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.534477370884705</v>
       </c>
       <c r="M25">
-        <v>18.40385963865406</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.43128537787653</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.17540809125536</v>
+        <v>14.63600841952538</v>
       </c>
       <c r="C2">
-        <v>7.283797348608943</v>
+        <v>4.562363476012342</v>
       </c>
       <c r="D2">
-        <v>6.634483854560183</v>
+        <v>8.577642651360252</v>
       </c>
       <c r="E2">
-        <v>6.491025030661516</v>
+        <v>10.07149674727916</v>
       </c>
       <c r="F2">
-        <v>41.32832819123941</v>
+        <v>43.39203069139801</v>
       </c>
       <c r="I2">
-        <v>30.89309692306663</v>
+        <v>35.38290916615532</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.48668042692173</v>
+        <v>12.91868258295429</v>
       </c>
       <c r="L2">
-        <v>7.23398964093732</v>
+        <v>10.38218828623057</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.38835917175169</v>
+        <v>14.53035442462144</v>
       </c>
       <c r="C3">
-        <v>6.804762564325159</v>
+        <v>4.327100145637402</v>
       </c>
       <c r="D3">
-        <v>6.642843260339839</v>
+        <v>8.569480945865768</v>
       </c>
       <c r="E3">
-        <v>6.396504225817315</v>
+        <v>10.07816099576439</v>
       </c>
       <c r="F3">
-        <v>39.83022204615834</v>
+        <v>43.04555017766513</v>
       </c>
       <c r="I3">
-        <v>30.08214486193734</v>
+        <v>35.21440922354945</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.6845134907035</v>
+        <v>12.84548908304106</v>
       </c>
       <c r="L3">
-        <v>7.034226584333644</v>
+        <v>10.37515367810482</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89051379423895</v>
+        <v>14.47017483856933</v>
       </c>
       <c r="C4">
-        <v>6.496443412861737</v>
+        <v>4.174976701742761</v>
       </c>
       <c r="D4">
-        <v>6.648068878116678</v>
+        <v>8.564290945351265</v>
       </c>
       <c r="E4">
-        <v>6.341289738207857</v>
+        <v>10.08373185145526</v>
       </c>
       <c r="F4">
-        <v>38.90692856171449</v>
+        <v>42.83813177391508</v>
       </c>
       <c r="I4">
-        <v>29.58889303347691</v>
+        <v>35.114732043346</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.16622005340063</v>
+        <v>12.80449573145657</v>
       </c>
       <c r="L4">
-        <v>6.913745140167207</v>
+        <v>10.37281800431302</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.6841606853339</v>
+        <v>14.44685833451983</v>
       </c>
       <c r="C5">
-        <v>6.367196513073268</v>
+        <v>4.111083119008001</v>
       </c>
       <c r="D5">
-        <v>6.650220397383821</v>
+        <v>8.562130747607892</v>
       </c>
       <c r="E5">
-        <v>6.319499043233273</v>
+        <v>10.08637415429245</v>
       </c>
       <c r="F5">
-        <v>38.5301627464187</v>
+        <v>42.75500481761795</v>
       </c>
       <c r="I5">
-        <v>29.38917385571498</v>
+        <v>35.0750823571013</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.948449739129932</v>
+        <v>12.78879970875627</v>
       </c>
       <c r="L5">
-        <v>6.86523773561281</v>
+        <v>10.37236603812561</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64969255836557</v>
+        <v>14.44306030516648</v>
       </c>
       <c r="C6">
-        <v>6.345516558908337</v>
+        <v>4.100359658480728</v>
       </c>
       <c r="D6">
-        <v>6.650578949476167</v>
+        <v>8.561769307758373</v>
       </c>
       <c r="E6">
-        <v>6.315923564043588</v>
+        <v>10.0868353877573</v>
       </c>
       <c r="F6">
-        <v>38.46758098275196</v>
+        <v>42.74128775210512</v>
       </c>
       <c r="I6">
-        <v>29.35609159759522</v>
+        <v>35.06855763001295</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.911890464776386</v>
+        <v>12.78625478861138</v>
       </c>
       <c r="L6">
-        <v>6.857220033537478</v>
+        <v>10.37232120366007</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88774462974882</v>
+        <v>14.4698554621125</v>
       </c>
       <c r="C7">
-        <v>6.494714980279798</v>
+        <v>4.174122672118275</v>
       </c>
       <c r="D7">
-        <v>6.648097806713728</v>
+        <v>8.564261995716487</v>
       </c>
       <c r="E7">
-        <v>6.340992988305477</v>
+        <v>10.08376597947053</v>
       </c>
       <c r="F7">
-        <v>38.90184896073372</v>
+        <v>42.83700495902774</v>
       </c>
       <c r="I7">
-        <v>29.58619419756602</v>
+        <v>35.11419336476499</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.16330980252069</v>
+        <v>12.80427994323951</v>
       </c>
       <c r="L7">
-        <v>6.913088506037167</v>
+        <v>10.37280988393503</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.90716255445258</v>
+        <v>14.59862207325103</v>
       </c>
       <c r="C8">
-        <v>7.12154712776492</v>
+        <v>4.482851133118112</v>
       </c>
       <c r="D8">
-        <v>6.637346069747487</v>
+        <v>8.574865400116463</v>
       </c>
       <c r="E8">
-        <v>6.457848864937042</v>
+        <v>10.07348778004934</v>
       </c>
       <c r="F8">
-        <v>40.81269406724837</v>
+        <v>43.27149609731149</v>
       </c>
       <c r="I8">
-        <v>30.61257238356573</v>
+        <v>35.32403676911838</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.21538772176427</v>
+        <v>12.89263647667355</v>
       </c>
       <c r="L8">
-        <v>7.164685274348927</v>
+        <v>10.37935176427853</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.02345831129966</v>
+        <v>14.88705600075642</v>
       </c>
       <c r="C9">
-        <v>8.240200521370401</v>
+        <v>5.026492430601511</v>
       </c>
       <c r="D9">
-        <v>6.61706327467932</v>
+        <v>8.594254565786688</v>
       </c>
       <c r="E9">
-        <v>6.709381729512661</v>
+        <v>10.06505484436644</v>
       </c>
       <c r="F9">
-        <v>44.51960364872529</v>
+        <v>44.16303208732251</v>
       </c>
       <c r="I9">
-        <v>32.65830744459716</v>
+        <v>35.7646908613316</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.07814814521936</v>
+        <v>13.09642447285619</v>
       </c>
       <c r="L9">
-        <v>7.67359063975726</v>
+        <v>10.40786274426249</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.49456826980756</v>
+        <v>15.11897000663661</v>
       </c>
       <c r="C10">
-        <v>8.998037708849779</v>
+        <v>5.387340573114787</v>
       </c>
       <c r="D10">
-        <v>6.60274797117208</v>
+        <v>8.60766294976967</v>
       </c>
       <c r="E10">
-        <v>6.907858627791476</v>
+        <v>10.06598543810532</v>
       </c>
       <c r="F10">
-        <v>47.20542701488776</v>
+        <v>44.83832896536194</v>
       </c>
       <c r="I10">
-        <v>34.17735321699475</v>
+        <v>36.10499053265389</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.3305745717713</v>
+        <v>13.2635700373845</v>
       </c>
       <c r="L10">
-        <v>8.055007173828201</v>
+        <v>10.4382786045772</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.1363452162649</v>
+        <v>15.22837739660818</v>
       </c>
       <c r="C11">
-        <v>9.32978306281975</v>
+        <v>5.543005406550313</v>
       </c>
       <c r="D11">
-        <v>6.596388187925281</v>
+        <v>8.613585109635419</v>
       </c>
       <c r="E11">
-        <v>7.00114998201258</v>
+        <v>10.06795009638274</v>
       </c>
       <c r="F11">
-        <v>48.41758267118662</v>
+        <v>45.14910073752393</v>
       </c>
       <c r="I11">
-        <v>34.87149988504162</v>
+        <v>36.26311309547302</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.87656303956977</v>
+        <v>13.34311096286081</v>
       </c>
       <c r="L11">
-        <v>8.229876874880079</v>
+        <v>10.45414622569842</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.37555924277879</v>
+        <v>15.27033045246955</v>
       </c>
       <c r="C12">
-        <v>9.453621951146857</v>
+        <v>5.600724470006026</v>
       </c>
       <c r="D12">
-        <v>6.594004310161668</v>
+        <v>8.615802476044678</v>
       </c>
       <c r="E12">
-        <v>7.036913404937238</v>
+        <v>10.06891499163132</v>
       </c>
       <c r="F12">
-        <v>48.87516628004393</v>
+        <v>45.26722323204427</v>
       </c>
       <c r="I12">
-        <v>35.1348073481359</v>
+        <v>36.32344156677219</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.0800308920669</v>
+        <v>13.37370981518668</v>
       </c>
       <c r="L12">
-        <v>8.296278052276545</v>
+        <v>10.46044431305018</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.32420752377811</v>
+        <v>15.26127249077526</v>
       </c>
       <c r="C13">
-        <v>9.427029022433622</v>
+        <v>5.588348340289751</v>
       </c>
       <c r="D13">
-        <v>6.594516590052447</v>
+        <v>8.615326044066638</v>
       </c>
       <c r="E13">
-        <v>7.029191623677887</v>
+        <v>10.06869737113998</v>
       </c>
       <c r="F13">
-        <v>48.77668122688689</v>
+        <v>45.24176506018661</v>
       </c>
       <c r="I13">
-        <v>35.07807904714537</v>
+        <v>36.31042912574032</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.03635442760348</v>
+        <v>13.36709894507525</v>
       </c>
       <c r="L13">
-        <v>8.281969407579254</v>
+        <v>10.45907508433289</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.15610109990617</v>
+        <v>15.23181864872218</v>
       </c>
       <c r="C14">
-        <v>9.340006640916876</v>
+        <v>5.547778630995938</v>
       </c>
       <c r="D14">
-        <v>6.596191559406265</v>
+        <v>8.61376803769976</v>
       </c>
       <c r="E14">
-        <v>7.004083488202159</v>
+        <v>10.06802505576878</v>
       </c>
       <c r="F14">
-        <v>48.45525710219825</v>
+        <v>45.15881035606585</v>
       </c>
       <c r="I14">
-        <v>34.8931532299916</v>
+        <v>36.26806747242104</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.89336754295409</v>
+        <v>13.34561891073661</v>
       </c>
       <c r="L14">
-        <v>8.235336142883911</v>
+        <v>10.45465859054441</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.05263870466613</v>
+        <v>15.21384423198961</v>
       </c>
       <c r="C15">
-        <v>9.286472991009136</v>
+        <v>5.522768429791227</v>
       </c>
       <c r="D15">
-        <v>6.597220789687247</v>
+        <v>8.612810436764072</v>
       </c>
       <c r="E15">
-        <v>6.988760982623986</v>
+        <v>10.06764199067733</v>
       </c>
       <c r="F15">
-        <v>48.25818864815097</v>
+        <v>45.10805328720986</v>
       </c>
       <c r="I15">
-        <v>34.77993987850382</v>
+        <v>36.24217765986629</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.80536001129738</v>
+        <v>13.33252329740144</v>
       </c>
       <c r="L15">
-        <v>8.206795342490837</v>
+        <v>10.45199095818195</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.4520854898396</v>
+        <v>15.11189529780674</v>
       </c>
       <c r="C16">
-        <v>8.976102698413928</v>
+        <v>5.376996046592692</v>
       </c>
       <c r="D16">
-        <v>6.603166871525082</v>
+        <v>8.60727237736749</v>
       </c>
       <c r="E16">
-        <v>6.901822544678407</v>
+        <v>10.06588799932032</v>
       </c>
       <c r="F16">
-        <v>47.12601021272354</v>
+        <v>44.81808492476359</v>
       </c>
       <c r="I16">
-        <v>34.13205123229231</v>
+        <v>36.09472139953011</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.29442583306283</v>
+        <v>13.25844021986137</v>
       </c>
       <c r="L16">
-        <v>8.04360502364155</v>
+        <v>10.4372822659629</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.07672741807887</v>
+        <v>15.05032642878134</v>
       </c>
       <c r="C17">
-        <v>8.782427480633343</v>
+        <v>5.285389715672614</v>
       </c>
       <c r="D17">
-        <v>6.606855307310114</v>
+        <v>8.603829726255775</v>
       </c>
       <c r="E17">
-        <v>6.849259958936884</v>
+        <v>10.0652062733346</v>
       </c>
       <c r="F17">
-        <v>46.42893127568554</v>
+        <v>44.64106200681015</v>
       </c>
       <c r="I17">
-        <v>33.73538274354698</v>
+        <v>36.00509327827845</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.97499016043254</v>
+        <v>13.21387256300066</v>
       </c>
       <c r="L17">
-        <v>7.943828985133367</v>
+        <v>10.42877736986076</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.85823989897264</v>
+        <v>15.01528395070779</v>
       </c>
       <c r="C18">
-        <v>8.669801563090557</v>
+        <v>5.231901645928957</v>
       </c>
       <c r="D18">
-        <v>6.608990964825246</v>
+        <v>8.601832891910272</v>
       </c>
       <c r="E18">
-        <v>6.819309639607568</v>
+        <v>10.06495928893035</v>
       </c>
       <c r="F18">
-        <v>46.02708127473521</v>
+        <v>44.53958418092962</v>
       </c>
       <c r="I18">
-        <v>33.50752181021385</v>
+        <v>35.95385554367749</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.78901573331406</v>
+        <v>13.18856998981828</v>
       </c>
       <c r="L18">
-        <v>7.886568894594665</v>
+        <v>10.42407695578419</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.78381490041851</v>
+        <v>15.00348394855172</v>
       </c>
       <c r="C19">
-        <v>8.6314548946374</v>
+        <v>5.213654620134081</v>
       </c>
       <c r="D19">
-        <v>6.609716423365891</v>
+        <v>8.601153919124748</v>
       </c>
       <c r="E19">
-        <v>6.809217376012973</v>
+        <v>10.06490061010264</v>
       </c>
       <c r="F19">
-        <v>45.89086827578382</v>
+        <v>44.50528636231941</v>
       </c>
       <c r="I19">
-        <v>33.43042274326664</v>
+        <v>35.93656204238652</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.72565893359136</v>
+        <v>13.18006068579738</v>
       </c>
       <c r="L19">
-        <v>7.867204244631797</v>
+        <v>10.42251842409068</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.11695222303771</v>
+        <v>15.05684249563254</v>
       </c>
       <c r="C20">
-        <v>8.803171169009007</v>
+        <v>5.295224071800511</v>
       </c>
       <c r="D20">
-        <v>6.606461183579813</v>
+        <v>8.604197929994092</v>
       </c>
       <c r="E20">
-        <v>6.854826098525642</v>
+        <v>10.06526382910189</v>
       </c>
       <c r="F20">
-        <v>46.50323112079774</v>
+        <v>44.65987163447039</v>
       </c>
       <c r="I20">
-        <v>33.77757863480167</v>
+        <v>36.01460203600135</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.00922592910776</v>
+        <v>13.21858273346689</v>
       </c>
       <c r="L20">
-        <v>7.954437150823143</v>
+        <v>10.42966294265955</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.205580379061</v>
+        <v>15.24045608285896</v>
       </c>
       <c r="C21">
-        <v>9.365614977540805</v>
+        <v>5.559728309406314</v>
       </c>
       <c r="D21">
-        <v>6.595698895231307</v>
+        <v>8.614226344374293</v>
       </c>
       <c r="E21">
-        <v>7.011446475912758</v>
+        <v>10.06821654156548</v>
       </c>
       <c r="F21">
-        <v>48.54970609456657</v>
+        <v>45.18316481762319</v>
       </c>
       <c r="I21">
-        <v>34.94745807238531</v>
+        <v>36.2804980938411</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.93545435868807</v>
+        <v>13.35191534222235</v>
       </c>
       <c r="L21">
-        <v>8.249028594042853</v>
+        <v>10.45594799180333</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.89491001383383</v>
+        <v>15.36348700299612</v>
       </c>
       <c r="C22">
-        <v>9.722841229454895</v>
+        <v>5.725438409135957</v>
       </c>
       <c r="D22">
-        <v>6.588808982474628</v>
+        <v>8.620633578023527</v>
       </c>
       <c r="E22">
-        <v>7.116352457085286</v>
+        <v>10.07143360662583</v>
       </c>
       <c r="F22">
-        <v>49.87886880752089</v>
+        <v>45.5276968361673</v>
       </c>
       <c r="I22">
-        <v>35.71468433326385</v>
+        <v>36.45689187034017</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.5217125113196</v>
+        <v>13.44183203980066</v>
       </c>
       <c r="L22">
-        <v>8.442621214258237</v>
+        <v>10.47481195257577</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.52898069687261</v>
+        <v>15.29755911430258</v>
       </c>
       <c r="C23">
-        <v>9.533100866280931</v>
+        <v>5.637652738417959</v>
       </c>
       <c r="D23">
-        <v>6.592472162529542</v>
+        <v>8.617227267956816</v>
       </c>
       <c r="E23">
-        <v>7.060127104514802</v>
+        <v>10.06959907422474</v>
       </c>
       <c r="F23">
-        <v>49.17022901488511</v>
+        <v>45.34360681924166</v>
       </c>
       <c r="I23">
-        <v>35.30495076618471</v>
+        <v>36.3625167995848</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.21051621840619</v>
+        <v>13.39359650206069</v>
       </c>
       <c r="L23">
-        <v>8.339202354126867</v>
+        <v>10.46459068685408</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.09877497469115</v>
+        <v>15.05389547528822</v>
       </c>
       <c r="C24">
-        <v>8.793796938878396</v>
+        <v>5.29078052035626</v>
       </c>
       <c r="D24">
-        <v>6.606639319991114</v>
+        <v>8.604031519944485</v>
       </c>
       <c r="E24">
-        <v>6.852308810423881</v>
+        <v>10.0652373565995</v>
       </c>
       <c r="F24">
-        <v>46.4696435515524</v>
+        <v>44.65136687718072</v>
       </c>
       <c r="I24">
-        <v>33.75850128300977</v>
+        <v>36.01030221919768</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.99375519451398</v>
+        <v>13.21645226680449</v>
       </c>
       <c r="L24">
-        <v>7.949640878719745</v>
+        <v>10.4292619857801</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.45658064141694</v>
+        <v>14.80536995359458</v>
       </c>
       <c r="C25">
-        <v>7.949093444722181</v>
+        <v>4.886144561423396</v>
       </c>
       <c r="D25">
-        <v>6.622455082226734</v>
+        <v>8.589157607797157</v>
       </c>
       <c r="E25">
-        <v>6.638938323612682</v>
+        <v>10.06608289690151</v>
       </c>
       <c r="F25">
-        <v>43.52266738293588</v>
+        <v>43.91800344213554</v>
       </c>
       <c r="I25">
-        <v>32.10184411790863</v>
+        <v>35.6424827661212</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.59507806428669</v>
+        <v>13.03814341453408</v>
       </c>
       <c r="L25">
-        <v>7.534477370884705</v>
+        <v>10.39847915149011</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.63600841952538</v>
+        <v>13.17540809125537</v>
       </c>
       <c r="C2">
-        <v>4.562363476012342</v>
+        <v>7.283797348608838</v>
       </c>
       <c r="D2">
-        <v>8.577642651360252</v>
+        <v>6.634483854560244</v>
       </c>
       <c r="E2">
-        <v>10.07149674727916</v>
+        <v>6.491025030661469</v>
       </c>
       <c r="F2">
-        <v>43.39203069139801</v>
+        <v>41.32832819123931</v>
       </c>
       <c r="I2">
-        <v>35.38290916615532</v>
+        <v>30.89309692306654</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.91868258295429</v>
+        <v>11.48668042692175</v>
       </c>
       <c r="L2">
-        <v>10.38218828623057</v>
+        <v>7.233989640937312</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,31 +462,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.53035442462144</v>
+        <v>12.38835917175166</v>
       </c>
       <c r="C3">
-        <v>4.327100145637402</v>
+        <v>6.804762564325313</v>
       </c>
       <c r="D3">
-        <v>8.569480945865768</v>
+        <v>6.642843260339862</v>
       </c>
       <c r="E3">
-        <v>10.07816099576439</v>
+        <v>6.396504225817417</v>
       </c>
       <c r="F3">
-        <v>43.04555017766513</v>
+        <v>39.83022204615813</v>
       </c>
       <c r="I3">
-        <v>35.21440922354945</v>
+        <v>30.08214486193716</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.84548908304106</v>
+        <v>10.68451349070363</v>
       </c>
       <c r="L3">
-        <v>10.37515367810482</v>
+        <v>7.034226584333646</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -503,31 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.47017483856933</v>
+        <v>11.890513794239</v>
       </c>
       <c r="C4">
-        <v>4.174976701742761</v>
+        <v>6.496443412862004</v>
       </c>
       <c r="D4">
-        <v>8.564290945351265</v>
+        <v>6.648068878116807</v>
       </c>
       <c r="E4">
-        <v>10.08373185145526</v>
+        <v>6.341289738207906</v>
       </c>
       <c r="F4">
-        <v>42.83813177391508</v>
+        <v>38.90692856171453</v>
       </c>
       <c r="I4">
-        <v>35.114732043346</v>
+        <v>29.58889303347703</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.80449573145657</v>
+        <v>10.16622005340065</v>
       </c>
       <c r="L4">
-        <v>10.37281800431302</v>
+        <v>6.913745140167181</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -544,31 +544,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.44685833451983</v>
+        <v>11.68416068533393</v>
       </c>
       <c r="C5">
-        <v>4.111083119008001</v>
+        <v>6.367196513073421</v>
       </c>
       <c r="D5">
-        <v>8.562130747607892</v>
+        <v>6.650220397383714</v>
       </c>
       <c r="E5">
-        <v>10.08637415429245</v>
+        <v>6.319499043233273</v>
       </c>
       <c r="F5">
-        <v>42.75500481761795</v>
+        <v>38.53016274641882</v>
       </c>
       <c r="I5">
-        <v>35.0750823571013</v>
+        <v>29.38917385571504</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.78879970875627</v>
+        <v>9.948449739129986</v>
       </c>
       <c r="L5">
-        <v>10.37236603812561</v>
+        <v>6.865237735612785</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -585,31 +585,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.44306030516648</v>
+        <v>11.64969255836557</v>
       </c>
       <c r="C6">
-        <v>4.100359658480728</v>
+        <v>6.345516558908673</v>
       </c>
       <c r="D6">
-        <v>8.561769307758373</v>
+        <v>6.650578949476292</v>
       </c>
       <c r="E6">
-        <v>10.0868353877573</v>
+        <v>6.315923564043636</v>
       </c>
       <c r="F6">
-        <v>42.74128775210512</v>
+        <v>38.46758098275184</v>
       </c>
       <c r="I6">
-        <v>35.06855763001295</v>
+        <v>29.35609159759518</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.78625478861138</v>
+        <v>9.911890464776448</v>
       </c>
       <c r="L6">
-        <v>10.37232120366007</v>
+        <v>6.857220033537414</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -626,31 +626,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.4698554621125</v>
+        <v>11.88774462974881</v>
       </c>
       <c r="C7">
-        <v>4.174122672118275</v>
+        <v>6.494714980279888</v>
       </c>
       <c r="D7">
-        <v>8.564261995716487</v>
+        <v>6.648097806713871</v>
       </c>
       <c r="E7">
-        <v>10.08376597947053</v>
+        <v>6.340992988305424</v>
       </c>
       <c r="F7">
-        <v>42.83700495902774</v>
+        <v>38.90184896073385</v>
       </c>
       <c r="I7">
-        <v>35.11419336476499</v>
+        <v>29.58619419756618</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.80427994323951</v>
+        <v>10.16330980252068</v>
       </c>
       <c r="L7">
-        <v>10.37280988393503</v>
+        <v>6.913088506037086</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.59862207325103</v>
+        <v>12.9071625544526</v>
       </c>
       <c r="C8">
-        <v>4.482851133118112</v>
+        <v>7.121547127764817</v>
       </c>
       <c r="D8">
-        <v>8.574865400116463</v>
+        <v>6.637346069747624</v>
       </c>
       <c r="E8">
-        <v>10.07348778004934</v>
+        <v>6.457848864937008</v>
       </c>
       <c r="F8">
-        <v>43.27149609731149</v>
+        <v>40.81269406724839</v>
       </c>
       <c r="I8">
-        <v>35.32403676911838</v>
+        <v>30.61257238356577</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.89263647667355</v>
+        <v>11.21538772176421</v>
       </c>
       <c r="L8">
-        <v>10.37935176427853</v>
+        <v>7.164685274348945</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -708,31 +708,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.88705600075642</v>
+        <v>15.02345831129972</v>
       </c>
       <c r="C9">
-        <v>5.026492430601511</v>
+        <v>8.240200521370552</v>
       </c>
       <c r="D9">
-        <v>8.594254565786688</v>
+        <v>6.617063274679463</v>
       </c>
       <c r="E9">
-        <v>10.06505484436644</v>
+        <v>6.709381729512748</v>
       </c>
       <c r="F9">
-        <v>44.16303208732251</v>
+        <v>44.5196036487254</v>
       </c>
       <c r="I9">
-        <v>35.7646908613316</v>
+        <v>32.65830744459724</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.09642447285619</v>
+        <v>13.07814814521947</v>
       </c>
       <c r="L9">
-        <v>10.40786274426249</v>
+        <v>7.673590639757283</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -749,31 +749,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.11897000663661</v>
+        <v>16.49456826980758</v>
       </c>
       <c r="C10">
-        <v>5.387340573114787</v>
+        <v>8.998037708849781</v>
       </c>
       <c r="D10">
-        <v>8.60766294976967</v>
+        <v>6.602747971171961</v>
       </c>
       <c r="E10">
-        <v>10.06598543810532</v>
+        <v>6.907858627791462</v>
       </c>
       <c r="F10">
-        <v>44.83832896536194</v>
+        <v>47.20542701488775</v>
       </c>
       <c r="I10">
-        <v>36.10499053265389</v>
+        <v>34.17735321699473</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.2635700373845</v>
+        <v>14.3305745717713</v>
       </c>
       <c r="L10">
-        <v>10.4382786045772</v>
+        <v>8.055007173828187</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -790,31 +790,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.22837739660818</v>
+        <v>17.13634521626492</v>
       </c>
       <c r="C11">
-        <v>5.543005406550313</v>
+        <v>9.329783062819921</v>
       </c>
       <c r="D11">
-        <v>8.613585109635419</v>
+        <v>6.596388187925266</v>
       </c>
       <c r="E11">
-        <v>10.06795009638274</v>
+        <v>7.00114998201262</v>
       </c>
       <c r="F11">
-        <v>45.14910073752393</v>
+        <v>48.41758267118676</v>
       </c>
       <c r="I11">
-        <v>36.26311309547302</v>
+        <v>34.87149988504171</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.34311096286081</v>
+        <v>14.87656303956979</v>
       </c>
       <c r="L11">
-        <v>10.45414622569842</v>
+        <v>8.229876874880093</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -831,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.27033045246955</v>
+        <v>17.37555924277878</v>
       </c>
       <c r="C12">
-        <v>5.600724470006026</v>
+        <v>9.453621951146818</v>
       </c>
       <c r="D12">
-        <v>8.615802476044678</v>
+        <v>6.594004310161668</v>
       </c>
       <c r="E12">
-        <v>10.06891499163132</v>
+        <v>7.03691340493732</v>
       </c>
       <c r="F12">
-        <v>45.26722323204427</v>
+        <v>48.87516628004381</v>
       </c>
       <c r="I12">
-        <v>36.32344156677219</v>
+        <v>35.13480734813583</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.37370981518668</v>
+        <v>15.08003089206687</v>
       </c>
       <c r="L12">
-        <v>10.46044431305018</v>
+        <v>8.296278052276568</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -872,31 +872,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.26127249077526</v>
+        <v>17.32420752377817</v>
       </c>
       <c r="C13">
-        <v>5.588348340289751</v>
+        <v>9.427029022433713</v>
       </c>
       <c r="D13">
-        <v>8.615326044066638</v>
+        <v>6.5945165900526</v>
       </c>
       <c r="E13">
-        <v>10.06869737113998</v>
+        <v>7.029191623677882</v>
       </c>
       <c r="F13">
-        <v>45.24176506018661</v>
+        <v>48.77668122688709</v>
       </c>
       <c r="I13">
-        <v>36.31042912574032</v>
+        <v>35.07807904714549</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.36709894507525</v>
+        <v>15.03635442760355</v>
       </c>
       <c r="L13">
-        <v>10.45907508433289</v>
+        <v>8.281969407579211</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -913,31 +913,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.23181864872218</v>
+        <v>17.15610109990616</v>
       </c>
       <c r="C14">
-        <v>5.547778630995938</v>
+        <v>9.340006640916783</v>
       </c>
       <c r="D14">
-        <v>8.61376803769976</v>
+        <v>6.596191559406497</v>
       </c>
       <c r="E14">
-        <v>10.06802505576878</v>
+        <v>7.004083488202103</v>
       </c>
       <c r="F14">
-        <v>45.15881035606585</v>
+        <v>48.45525710219825</v>
       </c>
       <c r="I14">
-        <v>36.26806747242104</v>
+        <v>34.89315322999165</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.34561891073661</v>
+        <v>14.89336754295403</v>
       </c>
       <c r="L14">
-        <v>10.45465859054441</v>
+        <v>8.235336142883906</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -954,31 +954,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.21384423198961</v>
+        <v>17.05263870466616</v>
       </c>
       <c r="C15">
-        <v>5.522768429791227</v>
+        <v>9.286472991008896</v>
       </c>
       <c r="D15">
-        <v>8.612810436764072</v>
+        <v>6.597220789687325</v>
       </c>
       <c r="E15">
-        <v>10.06764199067733</v>
+        <v>6.988760982623998</v>
       </c>
       <c r="F15">
-        <v>45.10805328720986</v>
+        <v>48.25818864815097</v>
       </c>
       <c r="I15">
-        <v>36.24217765986629</v>
+        <v>34.77993987850386</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.33252329740144</v>
+        <v>14.80536001129737</v>
       </c>
       <c r="L15">
-        <v>10.45199095818195</v>
+        <v>8.206795342490862</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -995,31 +995,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.11189529780674</v>
+        <v>16.45208548983962</v>
       </c>
       <c r="C16">
-        <v>5.376996046592692</v>
+        <v>8.976102698413902</v>
       </c>
       <c r="D16">
-        <v>8.60727237736749</v>
+        <v>6.603166871525071</v>
       </c>
       <c r="E16">
-        <v>10.06588799932032</v>
+        <v>6.901822544678452</v>
       </c>
       <c r="F16">
-        <v>44.81808492476359</v>
+        <v>47.12601021272354</v>
       </c>
       <c r="I16">
-        <v>36.09472139953011</v>
+        <v>34.13205123229226</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.25844021986137</v>
+        <v>14.29442583306285</v>
       </c>
       <c r="L16">
-        <v>10.4372822659629</v>
+        <v>8.043605023641572</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1036,31 +1036,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.05032642878134</v>
+        <v>16.07672741807886</v>
       </c>
       <c r="C17">
-        <v>5.285389715672614</v>
+        <v>8.782427480633313</v>
       </c>
       <c r="D17">
-        <v>8.603829726255775</v>
+        <v>6.606855307310306</v>
       </c>
       <c r="E17">
-        <v>10.0652062733346</v>
+        <v>6.849259958936852</v>
       </c>
       <c r="F17">
-        <v>44.64106200681015</v>
+        <v>46.42893127568569</v>
       </c>
       <c r="I17">
-        <v>36.00509327827845</v>
+        <v>33.73538274354711</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.21387256300066</v>
+        <v>13.97499016043253</v>
       </c>
       <c r="L17">
-        <v>10.42877736986076</v>
+        <v>7.94382898513331</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1077,31 +1077,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.01528395070779</v>
+        <v>15.85823989897265</v>
       </c>
       <c r="C18">
-        <v>5.231901645928957</v>
+        <v>8.669801563090816</v>
       </c>
       <c r="D18">
-        <v>8.601832891910272</v>
+        <v>6.608990964825188</v>
       </c>
       <c r="E18">
-        <v>10.06495928893035</v>
+        <v>6.819309639607632</v>
       </c>
       <c r="F18">
-        <v>44.53958418092962</v>
+        <v>46.02708127473542</v>
       </c>
       <c r="I18">
-        <v>35.95385554367749</v>
+        <v>33.50752181021409</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.18856998981828</v>
+        <v>13.78901573331418</v>
       </c>
       <c r="L18">
-        <v>10.42407695578419</v>
+        <v>7.886568894594653</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.00348394855172</v>
+        <v>15.78381490041855</v>
       </c>
       <c r="C19">
-        <v>5.213654620134081</v>
+        <v>8.631454894637344</v>
       </c>
       <c r="D19">
-        <v>8.601153919124748</v>
+        <v>6.609716423365909</v>
       </c>
       <c r="E19">
-        <v>10.06490061010264</v>
+        <v>6.809217376012909</v>
       </c>
       <c r="F19">
-        <v>44.50528636231941</v>
+        <v>45.89086827578409</v>
       </c>
       <c r="I19">
-        <v>35.93656204238652</v>
+        <v>33.43042274326688</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.18006068579738</v>
+        <v>13.72565893359138</v>
       </c>
       <c r="L19">
-        <v>10.42251842409068</v>
+        <v>7.867204244631741</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1159,31 +1159,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.05684249563254</v>
+        <v>16.11695222303776</v>
       </c>
       <c r="C20">
-        <v>5.295224071800511</v>
+        <v>8.803171169009072</v>
       </c>
       <c r="D20">
-        <v>8.604197929994092</v>
+        <v>6.606461183579741</v>
       </c>
       <c r="E20">
-        <v>10.06526382910189</v>
+        <v>6.854826098525722</v>
       </c>
       <c r="F20">
-        <v>44.65987163447039</v>
+        <v>46.50323112079776</v>
       </c>
       <c r="I20">
-        <v>36.01460203600135</v>
+        <v>33.77757863480165</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.21858273346689</v>
+        <v>14.00922592910785</v>
       </c>
       <c r="L20">
-        <v>10.42966294265955</v>
+        <v>7.954437150823154</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1200,31 +1200,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.24045608285896</v>
+        <v>17.20558037906103</v>
       </c>
       <c r="C21">
-        <v>5.559728309406314</v>
+        <v>9.365614977540842</v>
       </c>
       <c r="D21">
-        <v>8.614226344374293</v>
+        <v>6.595698895231379</v>
       </c>
       <c r="E21">
-        <v>10.06821654156548</v>
+        <v>7.011446475912715</v>
       </c>
       <c r="F21">
-        <v>45.18316481762319</v>
+        <v>48.54970609456679</v>
       </c>
       <c r="I21">
-        <v>36.2804980938411</v>
+        <v>34.94745807238545</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.35191534222235</v>
+        <v>14.93545435868807</v>
       </c>
       <c r="L21">
-        <v>10.45594799180333</v>
+        <v>8.249028594042828</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1241,31 +1241,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.36348700299612</v>
+        <v>17.89491001383395</v>
       </c>
       <c r="C22">
-        <v>5.725438409135957</v>
+        <v>9.722841229454882</v>
       </c>
       <c r="D22">
-        <v>8.620633578023527</v>
+        <v>6.588808982474663</v>
       </c>
       <c r="E22">
-        <v>10.07143360662583</v>
+        <v>7.1163524570854</v>
       </c>
       <c r="F22">
-        <v>45.5276968361673</v>
+        <v>49.87886880752097</v>
       </c>
       <c r="I22">
-        <v>36.45689187034017</v>
+        <v>35.71468433326391</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.44183203980066</v>
+        <v>15.52171251131967</v>
       </c>
       <c r="L22">
-        <v>10.47481195257577</v>
+        <v>8.442621214258265</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1282,31 +1282,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29755911430258</v>
+        <v>17.5289806968726</v>
       </c>
       <c r="C23">
-        <v>5.637652738417959</v>
+        <v>9.533100866280812</v>
       </c>
       <c r="D23">
-        <v>8.617227267956816</v>
+        <v>6.59247216252975</v>
       </c>
       <c r="E23">
-        <v>10.06959907422474</v>
+        <v>7.060127104514828</v>
       </c>
       <c r="F23">
-        <v>45.34360681924166</v>
+        <v>49.17022901488505</v>
       </c>
       <c r="I23">
-        <v>36.3625167995848</v>
+        <v>35.30495076618473</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.39359650206069</v>
+        <v>15.21051621840615</v>
       </c>
       <c r="L23">
-        <v>10.46459068685408</v>
+        <v>8.339202354126853</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1323,31 +1323,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.05389547528822</v>
+        <v>16.09877497469101</v>
       </c>
       <c r="C24">
-        <v>5.29078052035626</v>
+        <v>8.793796938878499</v>
       </c>
       <c r="D24">
-        <v>8.604031519944485</v>
+        <v>6.606639319991174</v>
       </c>
       <c r="E24">
-        <v>10.0652373565995</v>
+        <v>6.85230881042391</v>
       </c>
       <c r="F24">
-        <v>44.65136687718072</v>
+        <v>46.46964355155245</v>
       </c>
       <c r="I24">
-        <v>36.01030221919768</v>
+        <v>33.75850128300986</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.21645226680449</v>
+        <v>13.9937551945139</v>
       </c>
       <c r="L24">
-        <v>10.4292619857801</v>
+        <v>7.949640878719752</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.80536995359458</v>
+        <v>14.45658064141696</v>
       </c>
       <c r="C25">
-        <v>4.886144561423396</v>
+        <v>7.949093444722016</v>
       </c>
       <c r="D25">
-        <v>8.589157607797157</v>
+        <v>6.622455082226852</v>
       </c>
       <c r="E25">
-        <v>10.06608289690151</v>
+        <v>6.63893832361264</v>
       </c>
       <c r="F25">
-        <v>43.91800344213554</v>
+        <v>43.52266738293593</v>
       </c>
       <c r="I25">
-        <v>35.6424827661212</v>
+        <v>32.1018441179087</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.03814341453408</v>
+        <v>12.59507806428671</v>
       </c>
       <c r="L25">
-        <v>10.39847915149011</v>
+        <v>7.534477370884734</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,989 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.17540809125537</v>
+        <v>12.04855994275419</v>
       </c>
       <c r="C2">
-        <v>7.283797348608838</v>
+        <v>8.262038566017406</v>
       </c>
       <c r="D2">
-        <v>6.634483854560244</v>
+        <v>5.24471279683454</v>
       </c>
       <c r="E2">
-        <v>6.491025030661469</v>
+        <v>15.73597547807743</v>
       </c>
       <c r="F2">
-        <v>41.32832819123931</v>
+        <v>19.43910572152589</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1.621382203885633</v>
       </c>
       <c r="I2">
-        <v>30.89309692306654</v>
+        <v>2.74940460956424</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>11.48668042692175</v>
+        <v>14.98406106485285</v>
       </c>
       <c r="L2">
-        <v>7.233989640937312</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.36899272175406</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.10948625292856</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15.99155664014552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.38835917175166</v>
+        <v>11.33178887814835</v>
       </c>
       <c r="C3">
-        <v>6.804762564325313</v>
+        <v>7.864380573577728</v>
       </c>
       <c r="D3">
-        <v>6.642843260339862</v>
+        <v>5.074721384822412</v>
       </c>
       <c r="E3">
-        <v>6.396504225817417</v>
+        <v>14.8454994729154</v>
       </c>
       <c r="F3">
-        <v>39.83022204615813</v>
+        <v>19.09048966232265</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.825785876147183</v>
       </c>
       <c r="I3">
-        <v>30.08214486193716</v>
+        <v>2.89865333539453</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>10.68451349070363</v>
+        <v>15.03282228413048</v>
       </c>
       <c r="L3">
-        <v>7.034226584333646</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.79475050410414</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.30229586172107</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>15.91000655630401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.890513794239</v>
+        <v>10.86597546088483</v>
       </c>
       <c r="C4">
-        <v>6.496443412862004</v>
+        <v>7.612523082545013</v>
       </c>
       <c r="D4">
-        <v>6.648068878116807</v>
+        <v>4.96697644969232</v>
       </c>
       <c r="E4">
-        <v>6.341289738207906</v>
+        <v>14.27009199231808</v>
       </c>
       <c r="F4">
-        <v>38.90692856171453</v>
+        <v>18.88060519161701</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1.955880559352385</v>
       </c>
       <c r="I4">
-        <v>29.58889303347703</v>
+        <v>2.994422687727368</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>10.16622005340065</v>
+        <v>15.06592816075002</v>
       </c>
       <c r="L4">
-        <v>6.913745140167181</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.42576013932498</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.78176392408374</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>15.86474293069259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.68416068533393</v>
+        <v>10.66725209916229</v>
       </c>
       <c r="C5">
-        <v>6.367196513073421</v>
+        <v>7.516192508761378</v>
       </c>
       <c r="D5">
-        <v>6.650220397383714</v>
+        <v>4.923841593250205</v>
       </c>
       <c r="E5">
-        <v>6.319499043233273</v>
+        <v>14.02726880818815</v>
       </c>
       <c r="F5">
-        <v>38.53016274641882</v>
+        <v>18.78669499325143</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2.010229956139956</v>
       </c>
       <c r="I5">
-        <v>29.38917385571504</v>
+        <v>3.037390493997069</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>9.948449739129986</v>
+        <v>15.07348646279634</v>
       </c>
       <c r="L5">
-        <v>6.865237735612785</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.27288759507287</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.56436315677861</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>15.84052157680318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.64969255836557</v>
+        <v>10.63083891854796</v>
       </c>
       <c r="C6">
-        <v>6.345516558908673</v>
+        <v>7.5101175791153</v>
       </c>
       <c r="D6">
-        <v>6.650578949476292</v>
+        <v>4.918580995696232</v>
       </c>
       <c r="E6">
-        <v>6.315923564043636</v>
+        <v>13.98503375116616</v>
       </c>
       <c r="F6">
-        <v>38.46758098275184</v>
+        <v>18.75955539937286</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2.019527215294896</v>
       </c>
       <c r="I6">
-        <v>29.35609159759518</v>
+        <v>3.048313206478674</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>9.911890464776448</v>
+        <v>15.06659913640375</v>
       </c>
       <c r="L6">
-        <v>6.857220033537414</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.24913496427344</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.52897539484712</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15.82806301035308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.88774462974881</v>
+        <v>10.85522720448173</v>
       </c>
       <c r="C7">
-        <v>6.494714980279888</v>
+        <v>7.638197588641408</v>
       </c>
       <c r="D7">
-        <v>6.648097806713871</v>
+        <v>4.971693117149826</v>
       </c>
       <c r="E7">
-        <v>6.340992988305424</v>
+        <v>14.26288030876441</v>
       </c>
       <c r="F7">
-        <v>38.90184896073385</v>
+        <v>18.84782256630591</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.957148852259803</v>
       </c>
       <c r="I7">
-        <v>29.58619419756618</v>
+        <v>3.004860418961452</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>10.16330980252068</v>
+        <v>15.04368528145738</v>
       </c>
       <c r="L7">
-        <v>6.913088506037086</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.42875794794058</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.7817429517395</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15.84125116895304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9071625544526</v>
+        <v>11.79682134422839</v>
       </c>
       <c r="C8">
-        <v>7.121547127764817</v>
+        <v>8.160381556628476</v>
       </c>
       <c r="D8">
-        <v>6.637346069747624</v>
+        <v>5.193669626465706</v>
       </c>
       <c r="E8">
-        <v>6.457848864937008</v>
+        <v>15.43008378953323</v>
       </c>
       <c r="F8">
-        <v>40.81269406724839</v>
+        <v>19.27743339078188</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1.691587331979352</v>
       </c>
       <c r="I8">
-        <v>30.61257238356577</v>
+        <v>2.812687725353953</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>11.21538772176421</v>
+        <v>14.97079101840246</v>
       </c>
       <c r="L8">
-        <v>7.164685274348945</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.18080246478301</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.83993833035593</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15.93216638983992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.02345831129972</v>
+        <v>13.45111824886086</v>
       </c>
       <c r="C9">
-        <v>8.240200521370552</v>
+        <v>9.076867689055026</v>
       </c>
       <c r="D9">
-        <v>6.617063274679463</v>
+        <v>5.591966212415587</v>
       </c>
       <c r="E9">
-        <v>6.709381729512748</v>
+        <v>17.49544412967006</v>
       </c>
       <c r="F9">
-        <v>44.5196036487254</v>
+        <v>20.2044118029673</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1.906919188073677</v>
       </c>
       <c r="I9">
-        <v>32.65830744459724</v>
+        <v>2.505111386888067</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>13.07814814521947</v>
+        <v>14.89389576963805</v>
       </c>
       <c r="L9">
-        <v>7.673590639757283</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.51394033730405</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.70945067493897</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>16.19055662926058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.49456826980758</v>
+        <v>14.57252775165334</v>
       </c>
       <c r="C10">
-        <v>8.998037708849781</v>
+        <v>9.721523200457094</v>
       </c>
       <c r="D10">
-        <v>6.602747971171961</v>
+        <v>5.894600013722107</v>
       </c>
       <c r="E10">
-        <v>6.907858627791462</v>
+        <v>18.31502391113304</v>
       </c>
       <c r="F10">
-        <v>47.20542701488775</v>
+        <v>20.74258353823554</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2.21468200233564</v>
       </c>
       <c r="I10">
-        <v>34.17735321699473</v>
+        <v>2.744073512108278</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>14.3305745717713</v>
+        <v>14.7600310122196</v>
       </c>
       <c r="L10">
-        <v>8.055007173828187</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.43237791376159</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.69230361047297</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.28534554591766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.13634521626492</v>
+        <v>15.34829477919357</v>
       </c>
       <c r="C11">
-        <v>9.329783062819921</v>
+        <v>10.04419408642066</v>
       </c>
       <c r="D11">
-        <v>6.596388187925266</v>
+        <v>6.265340624142063</v>
       </c>
       <c r="E11">
-        <v>7.00114998201262</v>
+        <v>14.01758405116372</v>
       </c>
       <c r="F11">
-        <v>48.41758267118676</v>
+        <v>19.7130054829224</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.97522296901232</v>
       </c>
       <c r="I11">
-        <v>34.87149988504171</v>
+        <v>2.820880800629417</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>14.87656303956979</v>
+        <v>13.95613491852663</v>
       </c>
       <c r="L11">
-        <v>8.229876874880093</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.02246694091109</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.84395998380942</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>15.35775012017924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.37555924277878</v>
+        <v>15.79049094301584</v>
       </c>
       <c r="C12">
-        <v>9.453621951146818</v>
+        <v>10.15401759974068</v>
       </c>
       <c r="D12">
-        <v>6.594004310161668</v>
+        <v>6.518081285519683</v>
       </c>
       <c r="E12">
-        <v>7.03691340493732</v>
+        <v>10.44325234420768</v>
       </c>
       <c r="F12">
-        <v>48.87516628004381</v>
+        <v>18.75999775133494</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.185931527219632</v>
       </c>
       <c r="I12">
-        <v>35.13480734813583</v>
+        <v>2.835634381916627</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>15.08003089206687</v>
+        <v>13.35938561671454</v>
       </c>
       <c r="L12">
-        <v>8.296278052276568</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.33210507885964</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.06774806859652</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>14.58954703573322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.32420752377817</v>
+        <v>16.00655282921717</v>
       </c>
       <c r="C13">
-        <v>9.427029022433713</v>
+        <v>10.14318681193315</v>
       </c>
       <c r="D13">
-        <v>6.5945165900526</v>
+        <v>6.705389284743098</v>
       </c>
       <c r="E13">
-        <v>7.029191623677882</v>
+        <v>7.462517061287491</v>
       </c>
       <c r="F13">
-        <v>48.77668122688709</v>
+        <v>17.74948186035003</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5.491422802866873</v>
       </c>
       <c r="I13">
-        <v>35.07807904714549</v>
+        <v>2.808625756808978</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>15.03635442760355</v>
+        <v>12.8569043936897</v>
       </c>
       <c r="L13">
-        <v>8.281969407579211</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.45878758190688</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.19477520519581</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>13.86253648995734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.15610109990616</v>
+        <v>16.05691969683</v>
       </c>
       <c r="C14">
-        <v>9.340006640916783</v>
+        <v>10.08821997314217</v>
       </c>
       <c r="D14">
-        <v>6.596191559406497</v>
+        <v>6.810401561072468</v>
       </c>
       <c r="E14">
-        <v>7.004083488202103</v>
+        <v>6.202109135865775</v>
       </c>
       <c r="F14">
-        <v>48.45525710219825</v>
+        <v>17.00538095506928</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6.444514518626089</v>
       </c>
       <c r="I14">
-        <v>34.89315322999165</v>
+        <v>2.772493961921155</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>14.89336754295403</v>
+        <v>12.55209914218962</v>
       </c>
       <c r="L14">
-        <v>8.235336142883906</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.46779575298943</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.955609650659722</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>13.37251428268516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.05263870466616</v>
+        <v>16.0179653206552</v>
       </c>
       <c r="C15">
-        <v>9.286472991008896</v>
+        <v>10.05745419208461</v>
       </c>
       <c r="D15">
-        <v>6.597220789687325</v>
+        <v>6.823291532508405</v>
       </c>
       <c r="E15">
-        <v>6.988760982623998</v>
+        <v>6.073058574279722</v>
       </c>
       <c r="F15">
-        <v>48.25818864815097</v>
+        <v>16.80316877089057</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>6.683884333560246</v>
       </c>
       <c r="I15">
-        <v>34.77993987850386</v>
+        <v>2.755820895000678</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>14.80536001129737</v>
+        <v>12.49047449488224</v>
       </c>
       <c r="L15">
-        <v>8.206795342490862</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.43196264129366</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.638203020319093</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13.25587518352736</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.45208548983962</v>
+        <v>15.53037832807709</v>
       </c>
       <c r="C16">
-        <v>8.976102698413902</v>
+        <v>9.807526668477339</v>
       </c>
       <c r="D16">
-        <v>6.603166871525071</v>
+        <v>6.669189824939006</v>
       </c>
       <c r="E16">
-        <v>6.901822544678452</v>
+        <v>6.057388754041303</v>
       </c>
       <c r="F16">
-        <v>47.12601021272354</v>
+        <v>16.72785020599258</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>6.468530452353965</v>
       </c>
       <c r="I16">
-        <v>34.13205123229226</v>
+        <v>2.662421799797762</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>14.29442583306285</v>
+        <v>12.64390143470806</v>
       </c>
       <c r="L16">
-        <v>8.043605023641572</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.04012913673933</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.44747833568813</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>13.3470365399183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.07672741807886</v>
+        <v>15.11873342092256</v>
       </c>
       <c r="C17">
-        <v>8.782427480633313</v>
+        <v>9.643590244558624</v>
       </c>
       <c r="D17">
-        <v>6.606855307310306</v>
+        <v>6.491186614350003</v>
       </c>
       <c r="E17">
-        <v>6.849259958936852</v>
+        <v>6.504367397079768</v>
       </c>
       <c r="F17">
-        <v>46.42893127568569</v>
+        <v>17.07282735048457</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5.717389066488135</v>
       </c>
       <c r="I17">
-        <v>33.73538274354711</v>
+        <v>2.609842311874437</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>13.97499016043253</v>
+        <v>12.91705928638915</v>
       </c>
       <c r="L17">
-        <v>7.94382898513331</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.72837553361999</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>9.969725638818465</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.67438748321539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.85823989897265</v>
+        <v>14.73929639659143</v>
       </c>
       <c r="C18">
-        <v>8.669801563090816</v>
+        <v>9.51934430292903</v>
       </c>
       <c r="D18">
-        <v>6.608990964825188</v>
+        <v>6.272182105229436</v>
       </c>
       <c r="E18">
-        <v>6.819309639607632</v>
+        <v>8.420684129042789</v>
       </c>
       <c r="F18">
-        <v>46.02708127473542</v>
+        <v>17.83879836019434</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.431186627002325</v>
       </c>
       <c r="I18">
-        <v>33.50752181021409</v>
+        <v>2.584470256946758</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>13.78901573331418</v>
+        <v>13.35569617598472</v>
       </c>
       <c r="L18">
-        <v>7.886568894594653</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.45284185168008</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.3382096284296</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.2658430517181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.78381490041855</v>
+        <v>14.40947571828636</v>
       </c>
       <c r="C19">
-        <v>8.631454894637344</v>
+        <v>9.485286529152201</v>
       </c>
       <c r="D19">
-        <v>6.609716423365909</v>
+        <v>6.05417243707023</v>
       </c>
       <c r="E19">
-        <v>6.809217376012909</v>
+        <v>11.91755950282641</v>
       </c>
       <c r="F19">
-        <v>45.89086827578409</v>
+        <v>18.83362078526704</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>3.047184359934869</v>
       </c>
       <c r="I19">
-        <v>33.43042274326688</v>
+        <v>2.596459380675679</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>13.72565893359138</v>
+        <v>13.89021199942</v>
       </c>
       <c r="L19">
-        <v>7.867204244631741</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.24176828715718</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.26208978605282</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.0046406485895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.11695222303776</v>
+        <v>14.26863063284555</v>
       </c>
       <c r="C20">
-        <v>8.803171169009072</v>
+        <v>9.625285093269888</v>
       </c>
       <c r="D20">
-        <v>6.606461183579741</v>
+        <v>5.832859449065156</v>
       </c>
       <c r="E20">
-        <v>6.854826098525722</v>
+        <v>18.06972915854825</v>
       </c>
       <c r="F20">
-        <v>46.50323112079776</v>
+        <v>20.50497052933884</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2.131458496920609</v>
       </c>
       <c r="I20">
-        <v>33.77757863480165</v>
+        <v>2.693725051205758</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>14.00922592910785</v>
+        <v>14.72244559575342</v>
       </c>
       <c r="L20">
-        <v>7.954437150823154</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.21137581890572</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.43533402231697</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.18540222643225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.20558037906103</v>
+        <v>15.03990738553134</v>
       </c>
       <c r="C21">
-        <v>9.365614977540842</v>
+        <v>10.08886531440738</v>
       </c>
       <c r="D21">
-        <v>6.595698895231379</v>
+        <v>6.015381313506464</v>
       </c>
       <c r="E21">
-        <v>7.011446475912715</v>
+        <v>19.51987881244416</v>
       </c>
       <c r="F21">
-        <v>48.54970609456679</v>
+        <v>21.16444084634156</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2.394653507999788</v>
       </c>
       <c r="I21">
-        <v>34.94745807238545</v>
+        <v>2.87794613393011</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>14.93545435868807</v>
+        <v>14.77119321889863</v>
       </c>
       <c r="L21">
-        <v>8.249028594042828</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.85265593564617</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.56254246080993</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>16.45219426919462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.89491001383395</v>
+        <v>15.54678215139615</v>
       </c>
       <c r="C22">
-        <v>9.722841229454882</v>
+        <v>10.35744825035196</v>
       </c>
       <c r="D22">
-        <v>6.588808982474663</v>
+        <v>6.138355656226209</v>
       </c>
       <c r="E22">
-        <v>7.1163524570854</v>
+        <v>20.15841987455448</v>
       </c>
       <c r="F22">
-        <v>49.87886880752097</v>
+        <v>21.5586012492645</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>2.552512665599773</v>
       </c>
       <c r="I22">
-        <v>35.71468433326391</v>
+        <v>2.989951816281387</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>15.52171251131967</v>
+        <v>14.7921200438315</v>
       </c>
       <c r="L22">
-        <v>8.442621214258265</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.26177810886259</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.13559301394049</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16.60332212834609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.5289806968726</v>
+        <v>15.28540391958206</v>
       </c>
       <c r="C23">
-        <v>9.533100866280812</v>
+        <v>10.18953344687385</v>
       </c>
       <c r="D23">
-        <v>6.59247216252975</v>
+        <v>6.0674856787667</v>
       </c>
       <c r="E23">
-        <v>7.060127104514828</v>
+        <v>19.82337803144825</v>
       </c>
       <c r="F23">
-        <v>49.17022901488505</v>
+        <v>21.38059066204912</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.469040942611537</v>
       </c>
       <c r="I23">
-        <v>35.30495076618473</v>
+        <v>2.92596000982928</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>15.21051621840615</v>
+        <v>14.80621464792488</v>
       </c>
       <c r="L23">
-        <v>8.339202354126853</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.04009714618385</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>17.82937300436167</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>16.5476397199883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.09877497469101</v>
+        <v>14.23892163734799</v>
       </c>
       <c r="C24">
-        <v>8.793796938878499</v>
+        <v>9.576771054599599</v>
       </c>
       <c r="D24">
-        <v>6.606639319991174</v>
+        <v>5.800410216949917</v>
       </c>
       <c r="E24">
-        <v>6.85230881042391</v>
+        <v>18.4970864932712</v>
       </c>
       <c r="F24">
-        <v>46.46964355155245</v>
+        <v>20.65971217565732</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2.145447808861352</v>
       </c>
       <c r="I24">
-        <v>33.75850128300986</v>
+        <v>2.686478947761221</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>13.9937551945139</v>
+        <v>14.82782970301993</v>
       </c>
       <c r="L24">
-        <v>7.949640878719752</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.17601364072777</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.62674104773878</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.30793944988024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.45658064141696</v>
+        <v>13.01330942141635</v>
       </c>
       <c r="C25">
-        <v>7.949093444722016</v>
+        <v>8.878926069907955</v>
       </c>
       <c r="D25">
-        <v>6.622455082226852</v>
+        <v>5.496386557527043</v>
       </c>
       <c r="E25">
-        <v>6.63893832361264</v>
+        <v>16.95562173646769</v>
       </c>
       <c r="F25">
-        <v>43.52266738293593</v>
+        <v>19.89748178385866</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1.781437494200261</v>
       </c>
       <c r="I25">
-        <v>32.1018441179087</v>
+        <v>2.564904470178766</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>12.59507806428671</v>
+        <v>14.87188128569782</v>
       </c>
       <c r="L25">
-        <v>7.534477370884734</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.17602785420502</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.22998535692638</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.07577750544442</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_54/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.04855994275419</v>
+        <v>12.02079821376125</v>
       </c>
       <c r="C2">
-        <v>8.262038566017406</v>
+        <v>8.508105842095176</v>
       </c>
       <c r="D2">
-        <v>5.24471279683454</v>
+        <v>5.29052821349765</v>
       </c>
       <c r="E2">
-        <v>15.73597547807743</v>
+        <v>15.74988014964047</v>
       </c>
       <c r="F2">
-        <v>19.43910572152589</v>
+        <v>18.71121939299537</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.621382203885633</v>
+        <v>1.574152809162164</v>
       </c>
       <c r="I2">
-        <v>2.74940460956424</v>
+        <v>2.628108384255733</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>14.98406106485285</v>
+        <v>14.29247224215825</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.1354099477957</v>
       </c>
       <c r="M2">
-        <v>11.36899272175406</v>
+        <v>9.014254022092116</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.10948625292856</v>
+        <v>11.48339471088157</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.99155664014552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.18531582836422</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.39103513989012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.33178887814835</v>
+        <v>11.33790523211443</v>
       </c>
       <c r="C3">
-        <v>7.864380573577728</v>
+        <v>8.003609256726236</v>
       </c>
       <c r="D3">
-        <v>5.074721384822412</v>
+        <v>5.096740481707593</v>
       </c>
       <c r="E3">
-        <v>14.8454994729154</v>
+        <v>14.87852508994541</v>
       </c>
       <c r="F3">
-        <v>19.09048966232265</v>
+        <v>18.43931021911912</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.825785876147183</v>
+        <v>1.772742409565916</v>
       </c>
       <c r="I3">
-        <v>2.89865333539453</v>
+        <v>2.761453658321705</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>15.03282228413048</v>
+        <v>14.38920298410636</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.28761365917591</v>
       </c>
       <c r="M3">
-        <v>10.79475050410414</v>
+        <v>9.028695454250155</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.30229586172107</v>
+        <v>10.896583896423</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.91000655630401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.37316346594205</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.36644163846313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.86597546088483</v>
+        <v>10.89461155445534</v>
       </c>
       <c r="C4">
-        <v>7.612523082545013</v>
+        <v>7.682496388945411</v>
       </c>
       <c r="D4">
-        <v>4.96697644969232</v>
+        <v>4.973953227665319</v>
       </c>
       <c r="E4">
-        <v>14.27009199231808</v>
+        <v>14.3158871325658</v>
       </c>
       <c r="F4">
-        <v>18.88060519161701</v>
+        <v>18.27629802149401</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.955880559352385</v>
+        <v>1.89916480211911</v>
       </c>
       <c r="I4">
-        <v>2.994422687727368</v>
+        <v>2.847360791459558</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>15.06592816075002</v>
+        <v>14.45069378708233</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.38240193888591</v>
       </c>
       <c r="M4">
-        <v>10.42576013932498</v>
+        <v>9.055737891509718</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.78176392408374</v>
+        <v>10.51961168766267</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.86474293069259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.84944895767974</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>15.3554376964133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.66725209916229</v>
+        <v>10.70562238515891</v>
       </c>
       <c r="C5">
-        <v>7.516192508761378</v>
+        <v>7.557472192495402</v>
       </c>
       <c r="D5">
-        <v>4.923841593250205</v>
+        <v>4.9246184619114</v>
       </c>
       <c r="E5">
-        <v>14.02726880818815</v>
+        <v>14.07858137360216</v>
       </c>
       <c r="F5">
-        <v>18.78669499325143</v>
+        <v>18.20181234153576</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.010229956139956</v>
+        <v>1.951985426588757</v>
       </c>
       <c r="I5">
-        <v>3.037390493997069</v>
+        <v>2.886804052625679</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>15.07348646279634</v>
+        <v>14.47008593525715</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.41563136303668</v>
       </c>
       <c r="M5">
-        <v>10.27288759507287</v>
+        <v>9.067775325678932</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.56436315677861</v>
+        <v>10.3633805023532</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.84052157680318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.63068782116021</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>15.34537110433097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.63083891854796</v>
+        <v>10.67098785847012</v>
       </c>
       <c r="C6">
-        <v>7.5101175791153</v>
+        <v>7.547094830426316</v>
       </c>
       <c r="D6">
-        <v>4.918580995696232</v>
+        <v>4.918354378134103</v>
       </c>
       <c r="E6">
-        <v>13.98503375116616</v>
+        <v>14.03733412811611</v>
       </c>
       <c r="F6">
-        <v>18.75955539937286</v>
+        <v>18.1784149260718</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.019527215294896</v>
+        <v>1.961020356204394</v>
       </c>
       <c r="I6">
-        <v>3.048313206478674</v>
+        <v>2.897827360913889</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>15.06659913640375</v>
+        <v>14.46579903276593</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.41417311431645</v>
       </c>
       <c r="M6">
-        <v>10.24913496427344</v>
+        <v>9.065755078356627</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.52897539484712</v>
+        <v>10.33900534415746</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.82806301035308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.59502939935711</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>15.33572541945154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.85522720448173</v>
+        <v>10.88434969512559</v>
       </c>
       <c r="C7">
-        <v>7.638197588641408</v>
+        <v>7.709140846572224</v>
       </c>
       <c r="D7">
-        <v>4.971693117149826</v>
+        <v>4.978673723987071</v>
       </c>
       <c r="E7">
-        <v>14.26288030876441</v>
+        <v>14.30889690284176</v>
       </c>
       <c r="F7">
-        <v>18.84782256630591</v>
+        <v>18.24522540156279</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.957148852259803</v>
+        <v>1.900393544062642</v>
       </c>
       <c r="I7">
-        <v>3.004860418961452</v>
+        <v>2.859556595389512</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>15.04368528145738</v>
+        <v>14.43045804995105</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.3642662946708</v>
       </c>
       <c r="M7">
-        <v>10.42875794794058</v>
+        <v>9.043624796732757</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.7817429517395</v>
+        <v>10.52240018650471</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.84125116895304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.84929437762923</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>15.33346216200353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.79682134422839</v>
+        <v>11.78082048372896</v>
       </c>
       <c r="C8">
-        <v>8.160381556628476</v>
+        <v>8.371909433668412</v>
       </c>
       <c r="D8">
-        <v>5.193669626465706</v>
+        <v>5.231489949131428</v>
       </c>
       <c r="E8">
-        <v>15.43008378953323</v>
+        <v>15.45056015799659</v>
       </c>
       <c r="F8">
-        <v>19.27743339078188</v>
+        <v>18.57795937473762</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.691587331979352</v>
+        <v>1.642346981606431</v>
       </c>
       <c r="I8">
-        <v>2.812687725353953</v>
+        <v>2.688254266210803</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>14.97079101840246</v>
+        <v>14.29867162227003</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.16523116735692</v>
       </c>
       <c r="M8">
-        <v>11.18080246478301</v>
+        <v>8.99709252344806</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.83993833035593</v>
+        <v>11.29073310012653</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.93216638983992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>13.9139478121647</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.35326771801073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.45111824886086</v>
+        <v>13.35913268921618</v>
       </c>
       <c r="C9">
-        <v>9.076867689055026</v>
+        <v>9.532477961993971</v>
       </c>
       <c r="D9">
-        <v>5.591966212415587</v>
+        <v>5.686216670221485</v>
       </c>
       <c r="E9">
-        <v>17.49544412967006</v>
+        <v>17.47335708698503</v>
       </c>
       <c r="F9">
-        <v>20.2044118029673</v>
+        <v>19.31256138619567</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.906919188073677</v>
+        <v>1.941301535672328</v>
       </c>
       <c r="I9">
-        <v>2.505111386888067</v>
+        <v>2.597220382651309</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>14.89389576963805</v>
+        <v>14.09379816155105</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.81450374487852</v>
       </c>
       <c r="M9">
-        <v>12.51394033730405</v>
+        <v>9.077049280397283</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.70945067493897</v>
+        <v>12.65356613843024</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.19055662926058</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.79500392159895</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.46471494084859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.57252775165334</v>
+        <v>14.43494711965289</v>
       </c>
       <c r="C10">
-        <v>9.721523200457094</v>
+        <v>10.32752931115018</v>
       </c>
       <c r="D10">
-        <v>5.894600013722107</v>
+        <v>6.026214745559288</v>
       </c>
       <c r="E10">
-        <v>18.31502391113304</v>
+        <v>18.26822224800392</v>
       </c>
       <c r="F10">
-        <v>20.74258353823554</v>
+        <v>19.72828838803716</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2.21468200233564</v>
+        <v>2.239539182725416</v>
       </c>
       <c r="I10">
-        <v>2.744073512108278</v>
+        <v>2.812711958943674</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>14.7600310122196</v>
+        <v>13.87776492378049</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.5096159795943</v>
       </c>
       <c r="M10">
-        <v>13.43237791376159</v>
+        <v>9.157240368021567</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.69230361047297</v>
+        <v>13.58991952220037</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.28534554591766</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.78409289491697</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.46398517418451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.34829477919357</v>
+        <v>15.21625176003118</v>
       </c>
       <c r="C11">
-        <v>10.04419408642066</v>
+        <v>10.62275519355393</v>
       </c>
       <c r="D11">
-        <v>6.265340624142063</v>
+        <v>6.400520696580967</v>
       </c>
       <c r="E11">
-        <v>14.01758405116372</v>
+        <v>13.98132402150196</v>
       </c>
       <c r="F11">
-        <v>19.7130054829224</v>
+        <v>18.77821627931319</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.97522296901232</v>
+        <v>2.99131716427307</v>
       </c>
       <c r="I11">
-        <v>2.820880800629417</v>
+        <v>2.885034423880168</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>13.95613491852663</v>
+        <v>13.17960624538434</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.98213514365249</v>
       </c>
       <c r="M11">
-        <v>14.02246694091109</v>
+        <v>8.673560031967726</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.84395998380942</v>
+        <v>14.17097889129827</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.35775012017924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.92828618106492</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.61287830789794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.79049094301584</v>
+        <v>15.672131263134</v>
       </c>
       <c r="C12">
-        <v>10.15401759974068</v>
+        <v>10.67614265417508</v>
       </c>
       <c r="D12">
-        <v>6.518081285519683</v>
+        <v>6.646185964227247</v>
       </c>
       <c r="E12">
-        <v>10.44325234420768</v>
+        <v>10.42651068708147</v>
       </c>
       <c r="F12">
-        <v>18.75999775133494</v>
+        <v>17.91660586713306</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.185931527219632</v>
+        <v>4.196746135216841</v>
       </c>
       <c r="I12">
-        <v>2.835634381916627</v>
+        <v>2.898597699812639</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>13.35938561671454</v>
+        <v>12.68497573073848</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.65041125176983</v>
       </c>
       <c r="M12">
-        <v>14.33210507885964</v>
+        <v>8.269313318684054</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.06774806859652</v>
+        <v>14.46878489583603</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.58954703573322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.14445216524767</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.92752790676944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.00655282921717</v>
+        <v>15.9093884223342</v>
       </c>
       <c r="C13">
-        <v>10.14318681193315</v>
+        <v>10.58319545982085</v>
       </c>
       <c r="D13">
-        <v>6.705389284743098</v>
+        <v>6.818388248801837</v>
       </c>
       <c r="E13">
-        <v>7.462517061287491</v>
+        <v>7.481722175237859</v>
       </c>
       <c r="F13">
-        <v>17.74948186035003</v>
+        <v>17.01579485078382</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.491422802866873</v>
+        <v>5.499704363287061</v>
       </c>
       <c r="I13">
-        <v>2.808625756808978</v>
+        <v>2.874419195164124</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>12.8569043936897</v>
+        <v>12.28904355850101</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.41340967235857</v>
       </c>
       <c r="M13">
-        <v>14.45878758190688</v>
+        <v>7.886159535085717</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.19477520519581</v>
+        <v>14.58033730254894</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.86253648995734</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.26295128094639</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.29536935955304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.05691969683</v>
+        <v>15.97824022549908</v>
       </c>
       <c r="C14">
-        <v>10.08821997314217</v>
+        <v>10.45816692912573</v>
       </c>
       <c r="D14">
-        <v>6.810401561072468</v>
+        <v>6.908988352857477</v>
       </c>
       <c r="E14">
-        <v>6.202109135865775</v>
+        <v>6.256687674362765</v>
       </c>
       <c r="F14">
-        <v>17.00538095506928</v>
+        <v>16.35737611674488</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.444514518626089</v>
+        <v>6.44279962427607</v>
       </c>
       <c r="I14">
-        <v>2.772493961921155</v>
+        <v>2.842356295864145</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>12.55209914218962</v>
+        <v>12.0586311711923</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.2851511993027</v>
       </c>
       <c r="M14">
-        <v>14.46779575298943</v>
+        <v>7.635103685527348</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.955609650659722</v>
+        <v>14.57697255865486</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.37251428268516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>9.98707343904575</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.8765234479556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.0179653206552</v>
+        <v>15.9455251601872</v>
       </c>
       <c r="C15">
-        <v>10.05745419208461</v>
+        <v>10.40480205403004</v>
       </c>
       <c r="D15">
-        <v>6.823291532508405</v>
+        <v>6.916875902081319</v>
       </c>
       <c r="E15">
-        <v>6.073058574279722</v>
+        <v>6.136736460252306</v>
       </c>
       <c r="F15">
-        <v>16.80316877089057</v>
+        <v>16.18032180778146</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.683884333560246</v>
+        <v>6.67878599987575</v>
       </c>
       <c r="I15">
-        <v>2.755820895000678</v>
+        <v>2.828089514471044</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>12.49047449488224</v>
+        <v>12.01633055193496</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.26459906829718</v>
       </c>
       <c r="M15">
-        <v>14.43196264129366</v>
+        <v>7.577253516758743</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.638203020319093</v>
+        <v>14.53739818974615</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.25587518352736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.666324497934967</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.77991632813354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.53037832807709</v>
+        <v>15.47308144787918</v>
       </c>
       <c r="C16">
-        <v>9.807526668477339</v>
+        <v>10.10533077664306</v>
       </c>
       <c r="D16">
-        <v>6.669189824939006</v>
+        <v>6.75041824485916</v>
       </c>
       <c r="E16">
-        <v>6.057388754041303</v>
+        <v>6.131436457671994</v>
       </c>
       <c r="F16">
-        <v>16.72785020599258</v>
+        <v>16.13851585916375</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.468530452353965</v>
+        <v>6.461946962061721</v>
       </c>
       <c r="I16">
-        <v>2.662421799797762</v>
+        <v>2.744690898040485</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>12.64390143470806</v>
+        <v>12.17820102507294</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.38741140258649</v>
       </c>
       <c r="M16">
-        <v>14.04012913673933</v>
+        <v>7.642374360742779</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.44747833568813</v>
+        <v>14.14016484662084</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.3470365399183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.470878648978614</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.89228998455564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.11873342092256</v>
+        <v>15.06317193778206</v>
       </c>
       <c r="C17">
-        <v>9.643590244558624</v>
+        <v>9.941661406133937</v>
       </c>
       <c r="D17">
-        <v>6.491186614350003</v>
+        <v>6.570747462313144</v>
       </c>
       <c r="E17">
-        <v>6.504367397079768</v>
+        <v>6.568033332771801</v>
       </c>
       <c r="F17">
-        <v>17.07282735048457</v>
+        <v>16.46316356219448</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.717389066488135</v>
+        <v>5.709127119375268</v>
       </c>
       <c r="I17">
-        <v>2.609842311874437</v>
+        <v>2.697758391492535</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>12.91705928638915</v>
+        <v>12.4209810645752</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.55877242422251</v>
       </c>
       <c r="M17">
-        <v>13.72837553361999</v>
+        <v>7.814906021792395</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.969725638818465</v>
+        <v>13.83112834770836</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.67438748321539</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>9.996013193082442</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.19897886279933</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.73929639659143</v>
+        <v>14.67363354616403</v>
       </c>
       <c r="C18">
-        <v>9.51934430292903</v>
+        <v>9.860835665405526</v>
       </c>
       <c r="D18">
-        <v>6.272182105229436</v>
+        <v>6.35847509694117</v>
       </c>
       <c r="E18">
-        <v>8.420684129042789</v>
+        <v>8.452162210234134</v>
       </c>
       <c r="F18">
-        <v>17.83879836019434</v>
+        <v>17.15884943218187</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.431186627002325</v>
+        <v>4.424605366005293</v>
       </c>
       <c r="I18">
-        <v>2.584470256946758</v>
+        <v>2.673454507825454</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>13.35569617598472</v>
+        <v>12.78847631147285</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.81697133185191</v>
       </c>
       <c r="M18">
-        <v>13.45284185168008</v>
+        <v>8.109588079893628</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.3382096284296</v>
+        <v>13.56558374369292</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.2658430517181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.40540769637864</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.72955622197118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.40947571828636</v>
+        <v>14.32548491092024</v>
       </c>
       <c r="C19">
-        <v>9.485286529152201</v>
+        <v>9.901104070937187</v>
       </c>
       <c r="D19">
-        <v>6.05417243707023</v>
+        <v>6.151933285751345</v>
       </c>
       <c r="E19">
-        <v>11.91755950282641</v>
+        <v>11.91594006600853</v>
       </c>
       <c r="F19">
-        <v>18.83362078526704</v>
+        <v>18.05036835533328</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.047184359934869</v>
+        <v>3.065810095222379</v>
       </c>
       <c r="I19">
-        <v>2.596459380675679</v>
+        <v>2.684648280201086</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>13.89021199942</v>
+        <v>13.22311893160969</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.12247759523122</v>
       </c>
       <c r="M19">
-        <v>13.24176828715718</v>
+        <v>8.471811662006532</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.26208978605282</v>
+        <v>13.36876503958378</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.0046406485895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.33765993020222</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.37992308271385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.26863063284555</v>
+        <v>14.14352490840343</v>
       </c>
       <c r="C20">
-        <v>9.625285093269888</v>
+        <v>10.19467853895555</v>
       </c>
       <c r="D20">
-        <v>5.832859449065156</v>
+        <v>5.955010330029565</v>
       </c>
       <c r="E20">
-        <v>18.06972915854825</v>
+        <v>18.0297328304239</v>
       </c>
       <c r="F20">
-        <v>20.50497052933884</v>
+        <v>19.52760516809963</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.131458496920609</v>
+        <v>2.158871513636564</v>
       </c>
       <c r="I20">
-        <v>2.693725051205758</v>
+        <v>2.771755907280142</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>14.72244559575342</v>
+        <v>13.8700629419269</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.54441521891407</v>
       </c>
       <c r="M20">
-        <v>13.21137581890572</v>
+        <v>9.077231477884906</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.43533402231697</v>
+        <v>13.36387280043419</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.18540222643225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.52522645338664</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15.3942497796163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.03990738553134</v>
+        <v>14.87731845750293</v>
       </c>
       <c r="C21">
-        <v>10.08886531440738</v>
+        <v>10.78351655005726</v>
       </c>
       <c r="D21">
-        <v>6.015381313506464</v>
+        <v>6.167020843859737</v>
       </c>
       <c r="E21">
-        <v>19.51987881244416</v>
+        <v>19.45848707083162</v>
       </c>
       <c r="F21">
-        <v>21.16444084634156</v>
+        <v>20.06984148090384</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.394653507999788</v>
+        <v>2.414664663632724</v>
       </c>
       <c r="I21">
-        <v>2.87794613393011</v>
+        <v>2.937030846031951</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>14.77119321889863</v>
+        <v>13.82751020091105</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.39703261174215</v>
       </c>
       <c r="M21">
-        <v>13.85265593564617</v>
+        <v>9.264793641312105</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.56254246080993</v>
+        <v>14.02119240848464</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.45219426919462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.65869823675616</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.56533663361757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.54678215139615</v>
+        <v>15.36200076081662</v>
       </c>
       <c r="C22">
-        <v>10.35744825035196</v>
+        <v>11.1243237180235</v>
       </c>
       <c r="D22">
-        <v>6.138355656226209</v>
+        <v>6.307945298381433</v>
       </c>
       <c r="E22">
-        <v>20.15841987455448</v>
+        <v>20.08474124046874</v>
       </c>
       <c r="F22">
-        <v>21.5586012492645</v>
+        <v>20.39477796746835</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.552512665599773</v>
+        <v>2.567764061901499</v>
       </c>
       <c r="I22">
-        <v>2.989951816281387</v>
+        <v>3.035835990198263</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>14.7921200438315</v>
+        <v>13.79281494388085</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.29328225887834</v>
       </c>
       <c r="M22">
-        <v>14.26177810886259</v>
+        <v>9.395644021935849</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.13559301394049</v>
+        <v>14.43952817162265</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.60332212834609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.23510207406171</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.65910921267238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.28540391958206</v>
+        <v>15.11206999980927</v>
       </c>
       <c r="C23">
-        <v>10.18953344687385</v>
+        <v>10.91749061885574</v>
       </c>
       <c r="D23">
-        <v>6.0674856787667</v>
+        <v>6.227494837273538</v>
       </c>
       <c r="E23">
-        <v>19.82337803144825</v>
+        <v>19.75605172880028</v>
       </c>
       <c r="F23">
-        <v>21.38059066204912</v>
+        <v>20.2520118623673</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.469040942611537</v>
+        <v>2.486800536064365</v>
       </c>
       <c r="I23">
-        <v>2.92596000982928</v>
+        <v>2.977569006545046</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>14.80621464792488</v>
+        <v>13.83387351781093</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.36338994892749</v>
       </c>
       <c r="M23">
-        <v>14.04009714618385</v>
+        <v>9.344589187047065</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.82937300436167</v>
+        <v>14.21311040167962</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.5476397199883</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>17.92721351297746</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.63237855905573</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.23892163734799</v>
+        <v>14.11170932976537</v>
       </c>
       <c r="C24">
-        <v>9.576771054599599</v>
+        <v>10.15141104165182</v>
       </c>
       <c r="D24">
-        <v>5.800410216949917</v>
+        <v>5.922948755963029</v>
       </c>
       <c r="E24">
-        <v>18.4970864932712</v>
+        <v>18.45535555662759</v>
       </c>
       <c r="F24">
-        <v>20.65971217565732</v>
+        <v>19.66948677007198</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.145447808861352</v>
+        <v>2.172846888504184</v>
       </c>
       <c r="I24">
-        <v>2.686478947761221</v>
+        <v>2.762313842279923</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>14.82782970301993</v>
+        <v>13.95986586580803</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.60880698404248</v>
       </c>
       <c r="M24">
-        <v>13.17601364072777</v>
+        <v>9.149931810204672</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.62674104773878</v>
+        <v>13.32997029274387</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.30793944988024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.71761525651162</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.50490729161412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.01330942141635</v>
+        <v>12.94107839183581</v>
       </c>
       <c r="C25">
-        <v>8.878926069907955</v>
+        <v>9.273367862353242</v>
       </c>
       <c r="D25">
-        <v>5.496386557527043</v>
+        <v>5.575981532738421</v>
       </c>
       <c r="E25">
-        <v>16.95562173646769</v>
+        <v>16.94451175805671</v>
       </c>
       <c r="F25">
-        <v>19.89748178385866</v>
+        <v>19.0599790477728</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.781437494200261</v>
+        <v>1.819483363582641</v>
       </c>
       <c r="I25">
-        <v>2.564904470178766</v>
+        <v>2.523912162875466</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>14.87188128569782</v>
+        <v>14.11141278575437</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.88125129271573</v>
       </c>
       <c r="M25">
-        <v>12.17602785420502</v>
+        <v>9.011728882993369</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.22998535692638</v>
+        <v>12.307695206768</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.07577750544442</v>
+        <v>15.31241075166005</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>15.39270659102149</v>
       </c>
     </row>
   </sheetData>
